--- a/data/china_ie_partner/2019-08.xlsx
+++ b/data/china_ie_partner/2019-08.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Downloads/china_ie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Documents/GitHub/ada-2020-project-milestone-p3-p3_lovela-data-science/data/china_ie_partner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E976A9-7ACE-7443-9C15-47FD6D33037F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C51696-8322-E74B-B8EE-A6482C654689}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16400" xr2:uid="{8F74DAF6-1138-2E45-873E-CC3CE452E3A4}"/>
   </bookViews>
@@ -36,666 +36,9 @@
     <t>进口</t>
   </si>
   <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>文莱</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>朝鲜</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>蒙古</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>韩国</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>阿联酋</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>亚洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>博茨瓦纳</t>
-  </si>
-  <si>
-    <t>布隆迪</t>
-  </si>
-  <si>
-    <t>加那利群岛</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>中非</t>
-  </si>
-  <si>
-    <t>塞卜泰(休达)</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>科摩罗</t>
-  </si>
-  <si>
-    <t>刚果(布)</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>几内亚比绍</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>肯尼亚</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>马拉维</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>毛里求斯</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>尼日利亚</t>
-  </si>
-  <si>
-    <t>留尼汪</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>西撒哈拉</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>乌干达</t>
-  </si>
-  <si>
-    <t>布基纳法索</t>
-  </si>
-  <si>
-    <t>刚果(金)</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>梅利利亚</t>
-  </si>
-  <si>
-    <t>斯威士兰</t>
-  </si>
-  <si>
-    <t>厄立特里亚</t>
-  </si>
-  <si>
-    <t>马约特</t>
-  </si>
-  <si>
-    <t>南苏丹共和国</t>
-  </si>
-  <si>
-    <t>非洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>爱尔兰</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>列支敦士登</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>亚美尼亚</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>俄罗斯联邦</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>波黑</t>
-  </si>
-  <si>
-    <t>梵蒂冈城国</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>黑山</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布达</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>阿鲁巴</t>
-  </si>
-  <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
-    <t>巴巴多斯</t>
-  </si>
-  <si>
-    <t>伯利兹</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>博内尔</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>库腊索岛</t>
-  </si>
-  <si>
-    <t>多米尼加共和国</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>法属圭亚那</t>
-  </si>
-  <si>
-    <t>格林纳达</t>
-  </si>
-  <si>
-    <t>瓜德罗普</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>牙买加</t>
-  </si>
-  <si>
-    <t>马提尼克</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>蒙特塞拉特</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>圣马丁岛</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>特立尼达和多巴哥</t>
-  </si>
-  <si>
-    <t>特克斯和凯科斯群岛</t>
-  </si>
-  <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
-    <t>英属维尔京群岛</t>
-  </si>
-  <si>
-    <t>圣基茨和尼维斯</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆</t>
-  </si>
-  <si>
-    <t>荷属安的列斯</t>
-  </si>
-  <si>
-    <t>拉丁美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>百慕大</t>
-  </si>
-  <si>
-    <t>北美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>斐济</t>
-  </si>
-  <si>
-    <t>盖比群岛</t>
-  </si>
-  <si>
-    <t>马克萨斯群岛</t>
-  </si>
-  <si>
-    <t>新喀里多尼亚</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>新西兰</t>
-  </si>
-  <si>
-    <t>诺福克岛</t>
-  </si>
-  <si>
-    <t>社会群岛</t>
-  </si>
-  <si>
-    <t>所罗门群岛</t>
-  </si>
-  <si>
-    <t>汤加</t>
-  </si>
-  <si>
-    <t>土阿莫土群岛</t>
-  </si>
-  <si>
-    <t>土布艾群岛</t>
-  </si>
-  <si>
-    <t>萨摩亚</t>
-  </si>
-  <si>
-    <t>基里巴斯</t>
-  </si>
-  <si>
-    <t>图瓦卢</t>
-  </si>
-  <si>
-    <t>密克罗尼西亚联邦</t>
-  </si>
-  <si>
-    <t>马绍尔群岛</t>
-  </si>
-  <si>
-    <t>帕劳</t>
-  </si>
-  <si>
-    <t>法属波利尼西亚</t>
-  </si>
-  <si>
-    <t>瓦利斯和浮图纳</t>
-  </si>
-  <si>
-    <t>国(地)别不详的</t>
-  </si>
-  <si>
-    <t>中国香港</t>
-  </si>
-  <si>
-    <t>马来西亚 </t>
-  </si>
-  <si>
-    <t>中国台湾</t>
-  </si>
-  <si>
     <t>month</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -703,79 +46,980 @@
     <t>year</t>
   </si>
   <si>
-    <t>澳门</t>
-  </si>
-  <si>
-    <t>尼泊尔联邦民主共和国</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>赞比亚</t>
-  </si>
-  <si>
-    <t>莱索托</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>前南马其顿</t>
-  </si>
-  <si>
-    <t>欧洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>萨巴</t>
-  </si>
-  <si>
-    <t>苏里南</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>库克群岛</t>
-  </si>
-  <si>
-    <t>瑙鲁</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚</t>
-  </si>
-  <si>
-    <t>大洋洲其他国家(地区)</t>
+    <t>Afghanistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bhutan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brunei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myanmar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambodia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyprus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,DPR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Hong Kong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indonesia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iran</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iraq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Israel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jordan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuwait</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lebanon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Macau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malaysia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maldives</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongolia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nepal,FDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pakistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palestine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philippines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qatar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,Rep.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thailand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yemen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Taiwan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Asia nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Africa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algeria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angola</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botswana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burundi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cameroon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceuta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comoros</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Djibouti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egypt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gabon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kenya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madagascar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malawi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mali</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritius</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morocco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozambique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namibia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nigeria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reunion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rwanda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senegal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seychelles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somalia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Africa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sudan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanzania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Togo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tunisia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uganda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo,DR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zambia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesotho</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melilla</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swaziland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eritrea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mayotte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Afr.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denmark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>France</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ireland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greece</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portugal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andorra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Austria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hungary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monaco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norway</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Marino</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switzerland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estonia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latvia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lithuania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armenia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belarus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moldova</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukraine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovenia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Croatia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovakia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macedonia,FYR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bosnia and Hercegovina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vatican City State</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serbia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montenegro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Eur.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latin America</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aruba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahamas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barbados</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolivia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonaire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brazil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colombia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curacao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecuador</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Guiana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenada</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guatemala</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guyana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haiti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honduras</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamaica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martinique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexico</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montserrat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panama</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paraguay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Martin Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Vincent&amp;Grenadines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>El Salvador</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suriname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turks&amp;Caicos Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uruguay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venezuela</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virgin Islands,British</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Kitts&amp;Nevis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Pierre&amp;Miquelon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.L.Amer.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>North America</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greenland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bermuda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.N.Amer.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oceania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambier Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marquesas Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nauru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zealand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Society Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tonga</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuamotu Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tubai Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samoa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kiribati</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micronesia,FS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Ocean.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Countries(reg.)unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -838,10 +1082,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1211,7 +1456,7 @@
   <dimension ref="A1:J249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A245"/>
+      <selection activeCell="D2" sqref="D2:D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1227,24 +1472,24 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>224</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>223</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
+      <c r="A2" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="3">
-        <v>36690</v>
+        <v>53317</v>
       </c>
       <c r="C2" s="3">
-        <v>36408</v>
+        <v>52907</v>
       </c>
       <c r="D2" s="2">
-        <v>282</v>
+        <v>410</v>
       </c>
       <c r="E2" s="6">
         <v>2019</v>
@@ -1258,17 +1503,17 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
+      <c r="A3" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>89640</v>
+        <v>130385</v>
       </c>
       <c r="C3" s="3">
-        <v>62192</v>
+        <v>90506</v>
       </c>
       <c r="D3" s="3">
-        <v>27449</v>
+        <v>39879</v>
       </c>
       <c r="E3" s="6">
         <v>2019</v>
@@ -1282,17 +1527,17 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
+      <c r="A4" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>984041</v>
+        <v>1430496</v>
       </c>
       <c r="C4" s="3">
-        <v>916261</v>
+        <v>1332025</v>
       </c>
       <c r="D4" s="3">
-        <v>67781</v>
+        <v>98471</v>
       </c>
       <c r="E4" s="6">
         <v>2019</v>
@@ -1306,17 +1551,17 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="21">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
+      <c r="A5" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>575</v>
+        <v>836</v>
       </c>
       <c r="C5" s="2">
-        <v>563</v>
+        <v>818</v>
       </c>
       <c r="D5" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E5" s="6">
         <v>2019</v>
@@ -1330,17 +1575,17 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="21">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
+      <c r="A6" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>45143</v>
+        <v>65588</v>
       </c>
       <c r="C6" s="3">
-        <v>17754</v>
+        <v>25794</v>
       </c>
       <c r="D6" s="3">
-        <v>27389</v>
+        <v>39794</v>
       </c>
       <c r="E6" s="6">
         <v>2019</v>
@@ -1354,17 +1599,17 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
+      <c r="A7" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>960998</v>
+        <v>1396067</v>
       </c>
       <c r="C7" s="3">
-        <v>617300</v>
+        <v>896741</v>
       </c>
       <c r="D7" s="3">
-        <v>343698</v>
+        <v>499326</v>
       </c>
       <c r="E7" s="6">
         <v>2019</v>
@@ -1378,17 +1623,17 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
+      <c r="A8" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>564050</v>
+        <v>819380</v>
       </c>
       <c r="C8" s="3">
-        <v>473905</v>
+        <v>688427</v>
       </c>
       <c r="D8" s="3">
-        <v>90145</v>
+        <v>130954</v>
       </c>
       <c r="E8" s="6">
         <v>2019</v>
@@ -1402,17 +1647,17 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
+      <c r="A9" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="3">
-        <v>28411</v>
+        <v>41277</v>
       </c>
       <c r="C9" s="3">
-        <v>26036</v>
+        <v>37836</v>
       </c>
       <c r="D9" s="3">
-        <v>2376</v>
+        <v>3441</v>
       </c>
       <c r="E9" s="6">
         <v>2019</v>
@@ -1426,17 +1671,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
+      <c r="A10" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>162703</v>
+        <v>236381</v>
       </c>
       <c r="C10" s="3">
-        <v>151026</v>
+        <v>219414</v>
       </c>
       <c r="D10" s="3">
-        <v>11678</v>
+        <v>16967</v>
       </c>
       <c r="E10" s="6">
         <v>2019</v>
@@ -1451,16 +1696,16 @@
     </row>
     <row r="11" spans="1:10" ht="21">
       <c r="A11" s="8" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>16778942</v>
+        <v>24377313</v>
       </c>
       <c r="C11" s="3">
-        <v>16264011</v>
+        <v>23629419</v>
       </c>
       <c r="D11" s="3">
-        <v>514931</v>
+        <v>747895</v>
       </c>
       <c r="E11" s="6">
         <v>2019</v>
@@ -1474,17 +1719,17 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="21">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
+      <c r="A12" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="3">
-        <v>5853359</v>
+        <v>8503435</v>
       </c>
       <c r="C12" s="3">
-        <v>4800016</v>
+        <v>6973436</v>
       </c>
       <c r="D12" s="3">
-        <v>1053342</v>
+        <v>1529999</v>
       </c>
       <c r="E12" s="6">
         <v>2019</v>
@@ -1498,17 +1743,17 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
+      <c r="A13" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="3">
-        <v>4667257</v>
+        <v>6779888</v>
       </c>
       <c r="C13" s="3">
-        <v>2584653</v>
+        <v>3754636</v>
       </c>
       <c r="D13" s="3">
-        <v>2082603</v>
+        <v>3025252</v>
       </c>
       <c r="E13" s="6">
         <v>2019</v>
@@ -1522,17 +1767,17 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
+      <c r="A14" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="3">
-        <v>1278167</v>
+        <v>1857011</v>
       </c>
       <c r="C14" s="3">
-        <v>627007</v>
+        <v>911116</v>
       </c>
       <c r="D14" s="3">
-        <v>651160</v>
+        <v>945895</v>
       </c>
       <c r="E14" s="6">
         <v>2019</v>
@@ -1546,17 +1791,17 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="5" t="s">
-        <v>16</v>
+      <c r="A15" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="3">
-        <v>2074110</v>
+        <v>3012861</v>
       </c>
       <c r="C15" s="3">
-        <v>645492</v>
+        <v>937662</v>
       </c>
       <c r="D15" s="3">
-        <v>1428618</v>
+        <v>2075198</v>
       </c>
       <c r="E15" s="6">
         <v>2019</v>
@@ -1570,17 +1815,17 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="21">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
+      <c r="A16" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="3">
-        <v>867193</v>
+        <v>1259709</v>
       </c>
       <c r="C16" s="3">
-        <v>566099</v>
+        <v>822287</v>
       </c>
       <c r="D16" s="3">
-        <v>301094</v>
+        <v>437422</v>
       </c>
       <c r="E16" s="6">
         <v>2019</v>
@@ -1594,17 +1839,17 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="21">
-      <c r="A17" s="5" t="s">
-        <v>18</v>
+      <c r="A17" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="3">
-        <v>17976877</v>
+        <v>26104731</v>
       </c>
       <c r="C17" s="3">
-        <v>8081938</v>
+        <v>11739170</v>
       </c>
       <c r="D17" s="3">
-        <v>9894939</v>
+        <v>14365561</v>
       </c>
       <c r="E17" s="6">
         <v>2019</v>
@@ -1618,17 +1863,17 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="21">
-      <c r="A18" s="5" t="s">
-        <v>19</v>
+      <c r="A18" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="3">
-        <v>246079</v>
+        <v>357475</v>
       </c>
       <c r="C18" s="3">
-        <v>230345</v>
+        <v>334624</v>
       </c>
       <c r="D18" s="3">
-        <v>15734</v>
+        <v>22851</v>
       </c>
       <c r="E18" s="6">
         <v>2019</v>
@@ -1642,17 +1887,17 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="21">
-      <c r="A19" s="5" t="s">
-        <v>20</v>
+      <c r="A19" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="3">
-        <v>936464</v>
+        <v>1360507</v>
       </c>
       <c r="C19" s="3">
-        <v>217030</v>
+        <v>315288</v>
       </c>
       <c r="D19" s="3">
-        <v>719435</v>
+        <v>1045219</v>
       </c>
       <c r="E19" s="6">
         <v>2019</v>
@@ -1666,17 +1911,17 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="21">
-      <c r="A20" s="5" t="s">
-        <v>21</v>
+      <c r="A20" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="B20" s="3">
-        <v>228569</v>
+        <v>332066</v>
       </c>
       <c r="C20" s="3">
-        <v>108496</v>
+        <v>157626</v>
       </c>
       <c r="D20" s="3">
-        <v>120073</v>
+        <v>174440</v>
       </c>
       <c r="E20" s="6">
         <v>2019</v>
@@ -1690,17 +1935,17 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="21">
-      <c r="A21" s="5" t="s">
-        <v>22</v>
+      <c r="A21" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="3">
-        <v>110479</v>
+        <v>160480</v>
       </c>
       <c r="C21" s="3">
-        <v>108873</v>
+        <v>158147</v>
       </c>
       <c r="D21" s="3">
-        <v>1606</v>
+        <v>2333</v>
       </c>
       <c r="E21" s="6">
         <v>2019</v>
@@ -1714,17 +1959,17 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="21">
-      <c r="A22" s="5" t="s">
-        <v>225</v>
+      <c r="A22" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="3">
-        <v>184651</v>
+        <v>268123</v>
       </c>
       <c r="C22" s="3">
-        <v>180057</v>
+        <v>261453</v>
       </c>
       <c r="D22" s="3">
-        <v>4593</v>
+        <v>6669</v>
       </c>
       <c r="E22" s="6">
         <v>2019</v>
@@ -1738,17 +1983,17 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="21">
-      <c r="A23" s="5" t="s">
-        <v>221</v>
+      <c r="A23" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="3">
-        <v>7137016</v>
+        <v>10368899</v>
       </c>
       <c r="C23" s="3">
-        <v>2960284</v>
+        <v>4301039</v>
       </c>
       <c r="D23" s="3">
-        <v>4176733</v>
+        <v>6067860</v>
       </c>
       <c r="E23" s="6">
         <v>2019</v>
@@ -1762,17 +2007,17 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="5" t="s">
-        <v>23</v>
+      <c r="A24" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>18533</v>
+        <v>26916</v>
       </c>
       <c r="C24" s="3">
-        <v>18531</v>
+        <v>26913</v>
       </c>
       <c r="D24" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="6">
         <v>2019</v>
@@ -1786,17 +2031,17 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="5" t="s">
-        <v>24</v>
+      <c r="A25" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="B25" s="3">
-        <v>540605</v>
+        <v>784799</v>
       </c>
       <c r="C25" s="3">
-        <v>136490</v>
+        <v>197726</v>
       </c>
       <c r="D25" s="3">
-        <v>404115</v>
+        <v>587073</v>
       </c>
       <c r="E25" s="6">
         <v>2019</v>
@@ -1810,17 +2055,17 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="21">
-      <c r="A26" s="5" t="s">
-        <v>226</v>
+      <c r="A26" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="3">
-        <v>112392</v>
+        <v>162894</v>
       </c>
       <c r="C26" s="3">
-        <v>105004</v>
+        <v>152426</v>
       </c>
       <c r="D26" s="3">
-        <v>7387</v>
+        <v>10469</v>
       </c>
       <c r="E26" s="6">
         <v>2019</v>
@@ -1834,17 +2079,17 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="21">
-      <c r="A27" s="5" t="s">
-        <v>25</v>
+      <c r="A27" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="B27" s="3">
-        <v>1225810</v>
+        <v>1780895</v>
       </c>
       <c r="C27" s="3">
-        <v>203305</v>
+        <v>295309</v>
       </c>
       <c r="D27" s="3">
-        <v>1022505</v>
+        <v>1485586</v>
       </c>
       <c r="E27" s="6">
         <v>2019</v>
@@ -1858,17 +2103,17 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="21">
-      <c r="A28" s="5" t="s">
-        <v>26</v>
+      <c r="A28" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="3">
-        <v>793383</v>
+        <v>1153232</v>
       </c>
       <c r="C28" s="3">
-        <v>726019</v>
+        <v>1055369</v>
       </c>
       <c r="D28" s="3">
-        <v>67364</v>
+        <v>97862</v>
       </c>
       <c r="E28" s="6">
         <v>2019</v>
@@ -1882,17 +2127,17 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="5" t="s">
-        <v>27</v>
+      <c r="A29" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="B29" s="3">
-        <v>4581</v>
+        <v>6654</v>
       </c>
       <c r="C29" s="3">
-        <v>4573</v>
+        <v>6641</v>
       </c>
       <c r="D29" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E29" s="6">
         <v>2019</v>
@@ -1906,17 +2151,17 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="21">
-      <c r="A30" s="5" t="s">
-        <v>28</v>
+      <c r="A30" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="B30" s="3">
-        <v>3569779</v>
+        <v>5186960</v>
       </c>
       <c r="C30" s="3">
-        <v>2323263</v>
+        <v>3376119</v>
       </c>
       <c r="D30" s="3">
-        <v>1246515</v>
+        <v>1810841</v>
       </c>
       <c r="E30" s="6">
         <v>2019</v>
@@ -1930,17 +2175,17 @@
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="5" t="s">
-        <v>29</v>
+      <c r="A31" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="3">
-        <v>625080</v>
+        <v>908256</v>
       </c>
       <c r="C31" s="3">
-        <v>135701</v>
+        <v>197281</v>
       </c>
       <c r="D31" s="3">
-        <v>489379</v>
+        <v>710975</v>
       </c>
       <c r="E31" s="6">
         <v>2019</v>
@@ -1954,17 +2199,17 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="5" t="s">
-        <v>30</v>
+      <c r="A32" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="B32" s="3">
-        <v>4735104</v>
+        <v>6878914</v>
       </c>
       <c r="C32" s="3">
-        <v>1383616</v>
+        <v>2009943</v>
       </c>
       <c r="D32" s="3">
-        <v>3351488</v>
+        <v>4868972</v>
       </c>
       <c r="E32" s="6">
         <v>2019</v>
@@ -1978,17 +2223,17 @@
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="5" t="s">
-        <v>31</v>
+      <c r="A33" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="B33" s="3">
-        <v>5358946</v>
+        <v>7787536</v>
       </c>
       <c r="C33" s="3">
-        <v>2998109</v>
+        <v>4358227</v>
       </c>
       <c r="D33" s="3">
-        <v>2360836</v>
+        <v>3429310</v>
       </c>
       <c r="E33" s="6">
         <v>2019</v>
@@ -2002,17 +2247,17 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="5" t="s">
-        <v>32</v>
+      <c r="A34" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="3">
-        <v>15787646</v>
+        <v>22936032</v>
       </c>
       <c r="C34" s="3">
-        <v>5813737</v>
+        <v>8446157</v>
       </c>
       <c r="D34" s="3">
-        <v>9973909</v>
+        <v>14489875</v>
       </c>
       <c r="E34" s="6">
         <v>2019</v>
@@ -2026,17 +2271,17 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="5" t="s">
-        <v>33</v>
+      <c r="A35" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="3">
-        <v>251147</v>
+        <v>364814</v>
       </c>
       <c r="C35" s="3">
-        <v>232209</v>
+        <v>337299</v>
       </c>
       <c r="D35" s="3">
-        <v>18938</v>
+        <v>27515</v>
       </c>
       <c r="E35" s="6">
         <v>2019</v>
@@ -2050,17 +2295,17 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="5" t="s">
-        <v>34</v>
+      <c r="A36" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="B36" s="3">
-        <v>75537</v>
+        <v>109720</v>
       </c>
       <c r="C36" s="3">
-        <v>75053</v>
+        <v>109018</v>
       </c>
       <c r="D36" s="2">
-        <v>484</v>
+        <v>703</v>
       </c>
       <c r="E36" s="6">
         <v>2019</v>
@@ -2074,17 +2319,17 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="21">
-      <c r="A37" s="5" t="s">
-        <v>35</v>
+      <c r="A37" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="B37" s="3">
-        <v>5347905</v>
+        <v>7769465</v>
       </c>
       <c r="C37" s="3">
-        <v>2479685</v>
+        <v>3602464</v>
       </c>
       <c r="D37" s="3">
-        <v>2868220</v>
+        <v>4167001</v>
       </c>
       <c r="E37" s="6">
         <v>2019</v>
@@ -2098,17 +2343,17 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="21">
-      <c r="A38" s="5" t="s">
-        <v>36</v>
+      <c r="A38" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="B38" s="3">
-        <v>1178098</v>
+        <v>1711186</v>
       </c>
       <c r="C38" s="3">
-        <v>941106</v>
+        <v>1367024</v>
       </c>
       <c r="D38" s="3">
-        <v>236992</v>
+        <v>344162</v>
       </c>
       <c r="E38" s="6">
         <v>2019</v>
@@ -2122,17 +2367,17 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="5" t="s">
-        <v>37</v>
+      <c r="A39" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B39" s="3">
-        <v>2699630</v>
+        <v>3921569</v>
       </c>
       <c r="C39" s="3">
-        <v>1820509</v>
+        <v>2644437</v>
       </c>
       <c r="D39" s="3">
-        <v>879121</v>
+        <v>1277132</v>
       </c>
       <c r="E39" s="6">
         <v>2019</v>
@@ -2146,17 +2391,17 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="5" t="s">
-        <v>38</v>
+      <c r="A40" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="B40" s="3">
-        <v>282707</v>
+        <v>410717</v>
       </c>
       <c r="C40" s="3">
-        <v>166470</v>
+        <v>241833</v>
       </c>
       <c r="D40" s="3">
-        <v>116237</v>
+        <v>168883</v>
       </c>
       <c r="E40" s="6">
         <v>2019</v>
@@ -2170,17 +2415,17 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="5" t="s">
-        <v>39</v>
+      <c r="A41" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B41" s="3">
-        <v>10307727</v>
+        <v>14974253</v>
       </c>
       <c r="C41" s="3">
-        <v>6079084</v>
+        <v>8831695</v>
       </c>
       <c r="D41" s="3">
-        <v>4228643</v>
+        <v>6142558</v>
       </c>
       <c r="E41" s="6">
         <v>2019</v>
@@ -2194,17 +2439,17 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="5" t="s">
-        <v>40</v>
+      <c r="A42" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="B42" s="3">
-        <v>8086750</v>
+        <v>11747399</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D42" s="3">
-        <v>8086750</v>
+        <v>11747399</v>
       </c>
       <c r="E42" s="6">
         <v>2019</v>
@@ -2219,16 +2464,16 @@
     </row>
     <row r="43" spans="1:10" ht="21">
       <c r="A43" s="8" t="s">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c r="B43" s="3">
-        <v>13972819</v>
+        <v>20299167</v>
       </c>
       <c r="C43" s="3">
-        <v>3226605</v>
+        <v>4687746</v>
       </c>
       <c r="D43" s="3">
-        <v>10746214</v>
+        <v>15611421</v>
       </c>
       <c r="E43" s="6">
         <v>2019</v>
@@ -2242,17 +2487,17 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="5" t="s">
-        <v>41</v>
+      <c r="A44" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="B44" s="3">
-        <v>9047</v>
+        <v>13142</v>
       </c>
       <c r="C44" s="3">
-        <v>8385</v>
+        <v>12180</v>
       </c>
       <c r="D44" s="2">
-        <v>662</v>
+        <v>962</v>
       </c>
       <c r="E44" s="6">
         <v>2019</v>
@@ -2266,17 +2511,17 @@
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="5" t="s">
-        <v>42</v>
+      <c r="A45" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B45" s="3">
-        <v>1158684</v>
+        <v>1683347</v>
       </c>
       <c r="C45" s="3">
-        <v>651581</v>
+        <v>946650</v>
       </c>
       <c r="D45" s="3">
-        <v>507103</v>
+        <v>736697</v>
       </c>
       <c r="E45" s="6">
         <v>2019</v>
@@ -2290,17 +2535,17 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" ht="21">
-      <c r="A46" s="5" t="s">
-        <v>43</v>
+      <c r="A46" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="B46" s="3">
-        <v>333957</v>
+        <v>485154</v>
       </c>
       <c r="C46" s="3">
-        <v>330677</v>
+        <v>480388</v>
       </c>
       <c r="D46" s="3">
-        <v>3280</v>
+        <v>4766</v>
       </c>
       <c r="E46" s="6">
         <v>2019</v>
@@ -2314,17 +2559,17 @@
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" ht="21">
-      <c r="A47" s="5" t="s">
-        <v>44</v>
+      <c r="A47" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="B47" s="3">
-        <v>78710</v>
+        <v>114345</v>
       </c>
       <c r="C47" s="3">
-        <v>78131</v>
+        <v>113504</v>
       </c>
       <c r="D47" s="2">
-        <v>580</v>
+        <v>842</v>
       </c>
       <c r="E47" s="6">
         <v>2019</v>
@@ -2338,17 +2583,17 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" ht="21">
-      <c r="A48" s="5" t="s">
-        <v>45</v>
+      <c r="A48" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="B48" s="3">
-        <v>538485</v>
+        <v>782346</v>
       </c>
       <c r="C48" s="3">
-        <v>41707</v>
+        <v>60593</v>
       </c>
       <c r="D48" s="3">
-        <v>496778</v>
+        <v>721752</v>
       </c>
       <c r="E48" s="6">
         <v>2019</v>
@@ -2362,17 +2607,17 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" ht="21">
-      <c r="A49" s="5" t="s">
-        <v>227</v>
+      <c r="A49" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="B49" s="3">
-        <v>381615</v>
+        <v>554470</v>
       </c>
       <c r="C49" s="3">
-        <v>246985</v>
+        <v>358881</v>
       </c>
       <c r="D49" s="3">
-        <v>134630</v>
+        <v>195589</v>
       </c>
       <c r="E49" s="6">
         <v>2019</v>
@@ -2386,8 +2631,8 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" ht="21">
-      <c r="A50" s="5" t="s">
-        <v>46</v>
+      <c r="A50" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="B50" s="2">
         <v>2</v>
@@ -2410,17 +2655,17 @@
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" ht="21">
-      <c r="A51" s="5" t="s">
-        <v>47</v>
+      <c r="A51" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="B51" s="3">
-        <v>11589452</v>
+        <v>16835914</v>
       </c>
       <c r="C51" s="3">
-        <v>6546393</v>
+        <v>9509519</v>
       </c>
       <c r="D51" s="3">
-        <v>5043059</v>
+        <v>7326394</v>
       </c>
       <c r="E51" s="6">
         <v>2019</v>
@@ -2434,17 +2679,17 @@
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" ht="21">
-      <c r="A52" s="5" t="s">
-        <v>48</v>
+      <c r="A52" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="B52" s="3">
-        <v>377361</v>
+        <v>548191</v>
       </c>
       <c r="C52" s="3">
-        <v>353778</v>
+        <v>513933</v>
       </c>
       <c r="D52" s="3">
-        <v>23583</v>
+        <v>34258</v>
       </c>
       <c r="E52" s="6">
         <v>2019</v>
@@ -2458,17 +2703,17 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" ht="21">
-      <c r="A53" s="5" t="s">
-        <v>49</v>
+      <c r="A53" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="B53" s="3">
-        <v>1303812</v>
+        <v>1894249</v>
       </c>
       <c r="C53" s="3">
-        <v>112488</v>
+        <v>163412</v>
       </c>
       <c r="D53" s="3">
-        <v>1191324</v>
+        <v>1730838</v>
       </c>
       <c r="E53" s="6">
         <v>2019</v>
@@ -2482,17 +2727,17 @@
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" ht="21">
-      <c r="A54" s="5" t="s">
-        <v>50</v>
+      <c r="A54" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B54" s="3">
-        <v>155566</v>
+        <v>225970</v>
       </c>
       <c r="C54" s="3">
-        <v>149830</v>
+        <v>217637</v>
       </c>
       <c r="D54" s="3">
-        <v>5736</v>
+        <v>8333</v>
       </c>
       <c r="E54" s="6">
         <v>2019</v>
@@ -2506,17 +2751,17 @@
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" ht="21">
-      <c r="A55" s="5" t="s">
-        <v>51</v>
+      <c r="A55" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="B55" s="3">
-        <v>20114</v>
+        <v>29219</v>
       </c>
       <c r="C55" s="3">
-        <v>19347</v>
-      </c>
-      <c r="D55" s="2">
-        <v>767</v>
+        <v>28104</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1115</v>
       </c>
       <c r="E55" s="6">
         <v>2019</v>
@@ -2530,17 +2775,17 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" ht="21">
-      <c r="A56" s="5" t="s">
-        <v>52</v>
+      <c r="A56" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="B56" s="3">
-        <v>7233</v>
+        <v>10506</v>
       </c>
       <c r="C56" s="3">
-        <v>6392</v>
-      </c>
-      <c r="D56" s="2">
-        <v>841</v>
+        <v>9283</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1223</v>
       </c>
       <c r="E56" s="6">
         <v>2019</v>
@@ -2554,17 +2799,17 @@
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="5" t="s">
-        <v>228</v>
+      <c r="A57" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="B57" s="3">
-        <v>119371</v>
+        <v>173308</v>
       </c>
       <c r="C57" s="3">
-        <v>94415</v>
+        <v>137133</v>
       </c>
       <c r="D57" s="3">
-        <v>24956</v>
+        <v>36175</v>
       </c>
       <c r="E57" s="6">
         <v>2019</v>
@@ -2578,14 +2823,14 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" ht="21">
-      <c r="A58" s="5" t="s">
-        <v>53</v>
+      <c r="A58" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="B58" s="2">
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="C58" s="2">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="D58" s="2">
         <v>0</v>
@@ -2602,14 +2847,14 @@
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" ht="21">
-      <c r="A59" s="5" t="s">
-        <v>54</v>
+      <c r="A59" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="B59" s="3">
-        <v>5067</v>
+        <v>7361</v>
       </c>
       <c r="C59" s="3">
-        <v>5067</v>
+        <v>7361</v>
       </c>
       <c r="D59" s="2">
         <v>0</v>
@@ -2626,17 +2871,17 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" ht="21">
-      <c r="A60" s="5" t="s">
-        <v>55</v>
+      <c r="A60" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="B60" s="3">
-        <v>4374</v>
+        <v>6331</v>
       </c>
       <c r="C60" s="3">
-        <v>1007</v>
+        <v>1464</v>
       </c>
       <c r="D60" s="3">
-        <v>3366</v>
+        <v>4868</v>
       </c>
       <c r="E60" s="6">
         <v>2019</v>
@@ -2650,17 +2895,17 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="5" t="s">
-        <v>56</v>
+      <c r="A61" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="B61" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C61" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" s="6">
         <v>2019</v>
@@ -2674,14 +2919,14 @@
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="5" t="s">
-        <v>57</v>
+      <c r="A62" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="B62" s="3">
-        <v>14116</v>
+        <v>20505</v>
       </c>
       <c r="C62" s="3">
-        <v>14116</v>
+        <v>20505</v>
       </c>
       <c r="D62" s="2">
         <v>0</v>
@@ -2698,17 +2943,17 @@
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" ht="21">
-      <c r="A63" s="5" t="s">
-        <v>58</v>
+      <c r="A63" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="B63" s="3">
-        <v>4096</v>
+        <v>5951</v>
       </c>
       <c r="C63" s="3">
-        <v>4096</v>
+        <v>5951</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E63" s="6">
         <v>2019</v>
@@ -2722,17 +2967,17 @@
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" ht="21">
-      <c r="A64" s="5" t="s">
-        <v>59</v>
+      <c r="A64" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="B64" s="3">
-        <v>332095</v>
+        <v>482416</v>
       </c>
       <c r="C64" s="3">
-        <v>23658</v>
+        <v>34360</v>
       </c>
       <c r="D64" s="3">
-        <v>308436</v>
+        <v>448056</v>
       </c>
       <c r="E64" s="6">
         <v>2019</v>
@@ -2746,17 +2991,17 @@
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="5" t="s">
-        <v>60</v>
+      <c r="A65" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="B65" s="3">
-        <v>114591</v>
+        <v>166448</v>
       </c>
       <c r="C65" s="3">
-        <v>113759</v>
-      </c>
-      <c r="D65" s="2">
-        <v>832</v>
+        <v>165239</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1209</v>
       </c>
       <c r="E65" s="6">
         <v>2019</v>
@@ -2770,17 +3015,17 @@
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:10" ht="21">
-      <c r="A66" s="5" t="s">
-        <v>61</v>
+      <c r="A66" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="B66" s="3">
-        <v>684578</v>
+        <v>994416</v>
       </c>
       <c r="C66" s="3">
-        <v>652800</v>
+        <v>948252</v>
       </c>
       <c r="D66" s="3">
-        <v>31778</v>
+        <v>46164</v>
       </c>
       <c r="E66" s="6">
         <v>2019</v>
@@ -2794,17 +3039,17 @@
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="5" t="s">
-        <v>62</v>
+      <c r="A67" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="B67" s="3">
-        <v>46308</v>
+        <v>67278</v>
       </c>
       <c r="C67" s="3">
-        <v>11069</v>
+        <v>16081</v>
       </c>
       <c r="D67" s="3">
-        <v>35239</v>
+        <v>51197</v>
       </c>
       <c r="E67" s="6">
         <v>2019</v>
@@ -2818,17 +3063,17 @@
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="5" t="s">
-        <v>63</v>
+      <c r="A68" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="B68" s="3">
-        <v>128110</v>
+        <v>186078</v>
       </c>
       <c r="C68" s="3">
-        <v>107396</v>
+        <v>155989</v>
       </c>
       <c r="D68" s="3">
-        <v>20714</v>
+        <v>30089</v>
       </c>
       <c r="E68" s="6">
         <v>2019</v>
@@ -2842,17 +3087,17 @@
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" ht="21">
-      <c r="A69" s="5" t="s">
-        <v>64</v>
+      <c r="A69" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="B69" s="3">
-        <v>274645</v>
+        <v>399115</v>
       </c>
       <c r="C69" s="3">
-        <v>18666</v>
+        <v>27113</v>
       </c>
       <c r="D69" s="3">
-        <v>255979</v>
+        <v>372003</v>
       </c>
       <c r="E69" s="6">
         <v>2019</v>
@@ -2866,17 +3111,17 @@
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" ht="21">
-      <c r="A70" s="5" t="s">
-        <v>65</v>
+      <c r="A70" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="B70" s="3">
-        <v>36628</v>
+        <v>53208</v>
       </c>
       <c r="C70" s="3">
-        <v>32883</v>
+        <v>47768</v>
       </c>
       <c r="D70" s="3">
-        <v>3745</v>
+        <v>5440</v>
       </c>
       <c r="E70" s="6">
         <v>2019</v>
@@ -2890,17 +3135,17 @@
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="5" t="s">
-        <v>66</v>
+      <c r="A71" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="B71" s="3">
-        <v>412138</v>
+        <v>598662</v>
       </c>
       <c r="C71" s="3">
-        <v>268343</v>
+        <v>389778</v>
       </c>
       <c r="D71" s="3">
-        <v>143795</v>
+        <v>208884</v>
       </c>
       <c r="E71" s="6">
         <v>2019</v>
@@ -2914,17 +3159,17 @@
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:10" ht="21">
-      <c r="A72" s="5" t="s">
-        <v>67</v>
+      <c r="A72" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="B72" s="3">
-        <v>259477</v>
+        <v>376974</v>
       </c>
       <c r="C72" s="3">
-        <v>121910</v>
+        <v>177109</v>
       </c>
       <c r="D72" s="3">
-        <v>137566</v>
+        <v>199865</v>
       </c>
       <c r="E72" s="6">
         <v>2019</v>
@@ -2938,17 +3183,17 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="5" t="s">
-        <v>68</v>
+      <c r="A73" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="B73" s="3">
-        <v>1313</v>
+        <v>1908</v>
       </c>
       <c r="C73" s="3">
-        <v>1278</v>
+        <v>1857</v>
       </c>
       <c r="D73" s="2">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E73" s="6">
         <v>2019</v>
@@ -2962,17 +3207,17 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="5" t="s">
-        <v>69</v>
+      <c r="A74" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="B74" s="3">
-        <v>132820</v>
+        <v>192930</v>
       </c>
       <c r="C74" s="3">
-        <v>118730</v>
+        <v>172459</v>
       </c>
       <c r="D74" s="3">
-        <v>14090</v>
+        <v>20471</v>
       </c>
       <c r="E74" s="6">
         <v>2019</v>
@@ -2986,17 +3231,17 @@
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10" ht="21">
-      <c r="A75" s="5" t="s">
-        <v>70</v>
+      <c r="A75" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="B75" s="3">
-        <v>275762</v>
+        <v>400578</v>
       </c>
       <c r="C75" s="3">
-        <v>267218</v>
+        <v>388166</v>
       </c>
       <c r="D75" s="3">
-        <v>8544</v>
+        <v>12412</v>
       </c>
       <c r="E75" s="6">
         <v>2019</v>
@@ -3010,17 +3255,17 @@
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10" ht="21">
-      <c r="A76" s="5" t="s">
-        <v>71</v>
+      <c r="A76" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="B76" s="3">
-        <v>314893</v>
+        <v>457540</v>
       </c>
       <c r="C76" s="3">
-        <v>314509</v>
+        <v>456983</v>
       </c>
       <c r="D76" s="2">
-        <v>383</v>
+        <v>557</v>
       </c>
       <c r="E76" s="6">
         <v>2019</v>
@@ -3034,17 +3279,17 @@
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="5" t="s">
-        <v>72</v>
+      <c r="A77" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="B77" s="3">
-        <v>600911</v>
+        <v>872954</v>
       </c>
       <c r="C77" s="3">
-        <v>161197</v>
+        <v>234153</v>
       </c>
       <c r="D77" s="3">
-        <v>439715</v>
+        <v>638801</v>
       </c>
       <c r="E77" s="6">
         <v>2019</v>
@@ -3058,17 +3303,17 @@
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" ht="21">
-      <c r="A78" s="5" t="s">
-        <v>73</v>
+      <c r="A78" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="B78" s="3">
-        <v>72789</v>
+        <v>105747</v>
       </c>
       <c r="C78" s="3">
-        <v>60266</v>
+        <v>87554</v>
       </c>
       <c r="D78" s="3">
-        <v>12522</v>
+        <v>18193</v>
       </c>
       <c r="E78" s="6">
         <v>2019</v>
@@ -3082,17 +3327,17 @@
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="5" t="s">
-        <v>74</v>
+      <c r="A79" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="B79" s="3">
-        <v>12558</v>
+        <v>18243</v>
       </c>
       <c r="C79" s="3">
-        <v>12334</v>
+        <v>17917</v>
       </c>
       <c r="D79" s="2">
-        <v>224</v>
+        <v>325</v>
       </c>
       <c r="E79" s="6">
         <v>2019</v>
@@ -3106,17 +3351,17 @@
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="5" t="s">
-        <v>229</v>
+      <c r="A80" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="B80" s="3">
-        <v>26353</v>
+        <v>38289</v>
       </c>
       <c r="C80" s="3">
-        <v>15808</v>
+        <v>22968</v>
       </c>
       <c r="D80" s="3">
-        <v>10545</v>
+        <v>15320</v>
       </c>
       <c r="E80" s="6">
         <v>2019</v>
@@ -3130,17 +3375,17 @@
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" ht="21">
-      <c r="A81" s="5" t="s">
-        <v>75</v>
+      <c r="A81" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="B81" s="3">
-        <v>123709</v>
+        <v>179725</v>
       </c>
       <c r="C81" s="3">
-        <v>70715</v>
+        <v>102740</v>
       </c>
       <c r="D81" s="3">
-        <v>52994</v>
+        <v>76985</v>
       </c>
       <c r="E81" s="6">
         <v>2019</v>
@@ -3154,17 +3399,17 @@
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="1:10" ht="21">
-      <c r="A82" s="5" t="s">
-        <v>76</v>
+      <c r="A82" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="B82" s="3">
-        <v>59335</v>
+        <v>86181</v>
       </c>
       <c r="C82" s="3">
-        <v>56739</v>
+        <v>82407</v>
       </c>
       <c r="D82" s="3">
-        <v>2596</v>
+        <v>3774</v>
       </c>
       <c r="E82" s="6">
         <v>2019</v>
@@ -3178,17 +3423,17 @@
       <c r="J82" s="2"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="5" t="s">
-        <v>77</v>
+      <c r="A83" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="B83" s="3">
-        <v>275799</v>
+        <v>400618</v>
       </c>
       <c r="C83" s="3">
-        <v>237162</v>
+        <v>344500</v>
       </c>
       <c r="D83" s="3">
-        <v>38636</v>
+        <v>56118</v>
       </c>
       <c r="E83" s="6">
         <v>2019</v>
@@ -3202,17 +3447,17 @@
       <c r="J83" s="2"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="5" t="s">
-        <v>78</v>
+      <c r="A84" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="B84" s="3">
-        <v>171740</v>
+        <v>249510</v>
       </c>
       <c r="C84" s="3">
-        <v>128632</v>
+        <v>186882</v>
       </c>
       <c r="D84" s="3">
-        <v>43108</v>
+        <v>62629</v>
       </c>
       <c r="E84" s="6">
         <v>2019</v>
@@ -3226,17 +3471,17 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="5" t="s">
-        <v>79</v>
+      <c r="A85" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="B85" s="3">
-        <v>79033</v>
+        <v>114736</v>
       </c>
       <c r="C85" s="3">
-        <v>10320</v>
+        <v>14992</v>
       </c>
       <c r="D85" s="3">
-        <v>68713</v>
+        <v>99745</v>
       </c>
       <c r="E85" s="6">
         <v>2019</v>
@@ -3250,17 +3495,17 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="5" t="s">
-        <v>80</v>
+      <c r="A86" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="B86" s="3">
-        <v>22615</v>
+        <v>32849</v>
       </c>
       <c r="C86" s="3">
-        <v>18499</v>
+        <v>26869</v>
       </c>
       <c r="D86" s="3">
-        <v>4116</v>
+        <v>5980</v>
       </c>
       <c r="E86" s="6">
         <v>2019</v>
@@ -3274,17 +3519,17 @@
       <c r="J86" s="2"/>
     </row>
     <row r="87" spans="1:10" ht="21">
-      <c r="A87" s="5" t="s">
-        <v>81</v>
+      <c r="A87" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="B87" s="3">
-        <v>998002</v>
+        <v>1449737</v>
       </c>
       <c r="C87" s="3">
-        <v>904324</v>
+        <v>1313624</v>
       </c>
       <c r="D87" s="3">
-        <v>93678</v>
+        <v>136113</v>
       </c>
       <c r="E87" s="6">
         <v>2019</v>
@@ -3298,14 +3543,14 @@
       <c r="J87" s="2"/>
     </row>
     <row r="88" spans="1:10" ht="21">
-      <c r="A88" s="5" t="s">
-        <v>82</v>
+      <c r="A88" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="B88" s="3">
-        <v>10644</v>
+        <v>15461</v>
       </c>
       <c r="C88" s="3">
-        <v>10644</v>
+        <v>15461</v>
       </c>
       <c r="D88" s="2">
         <v>0</v>
@@ -3322,17 +3567,17 @@
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="1:10" ht="21">
-      <c r="A89" s="5" t="s">
-        <v>83</v>
+      <c r="A89" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="B89" s="3">
-        <v>12929</v>
+        <v>18784</v>
       </c>
       <c r="C89" s="3">
-        <v>11816</v>
+        <v>17166</v>
       </c>
       <c r="D89" s="3">
-        <v>1113</v>
+        <v>1618</v>
       </c>
       <c r="E89" s="6">
         <v>2019</v>
@@ -3346,14 +3591,14 @@
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="5" t="s">
-        <v>84</v>
+      <c r="A90" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="B90" s="2">
-        <v>281</v>
+        <v>408</v>
       </c>
       <c r="C90" s="2">
-        <v>280</v>
+        <v>407</v>
       </c>
       <c r="D90" s="2">
         <v>1</v>
@@ -3370,17 +3615,17 @@
       <c r="J90" s="2"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="5" t="s">
-        <v>85</v>
+      <c r="A91" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="B91" s="3">
-        <v>120174</v>
+        <v>174564</v>
       </c>
       <c r="C91" s="3">
-        <v>106049</v>
+        <v>154056</v>
       </c>
       <c r="D91" s="3">
-        <v>14125</v>
+        <v>20508</v>
       </c>
       <c r="E91" s="6">
         <v>2019</v>
@@ -3394,14 +3639,14 @@
       <c r="J91" s="2"/>
     </row>
     <row r="92" spans="1:10" ht="21">
-      <c r="A92" s="5" t="s">
-        <v>86</v>
+      <c r="A92" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="B92" s="3">
-        <v>3565</v>
+        <v>5179</v>
       </c>
       <c r="C92" s="3">
-        <v>3565</v>
+        <v>5178</v>
       </c>
       <c r="D92" s="2">
         <v>0</v>
@@ -3418,17 +3663,17 @@
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="1:10" ht="21">
-      <c r="A93" s="5" t="s">
-        <v>87</v>
+      <c r="A93" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="B93" s="3">
-        <v>41614</v>
+        <v>60466</v>
       </c>
       <c r="C93" s="3">
-        <v>19052</v>
+        <v>27687</v>
       </c>
       <c r="D93" s="3">
-        <v>22562</v>
+        <v>32778</v>
       </c>
       <c r="E93" s="6">
         <v>2019</v>
@@ -3442,17 +3687,17 @@
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="5" t="s">
-        <v>88</v>
+      <c r="A94" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="B94" s="3">
-        <v>43873</v>
+        <v>63734</v>
       </c>
       <c r="C94" s="3">
-        <v>42457</v>
+        <v>61676</v>
       </c>
       <c r="D94" s="3">
-        <v>1417</v>
+        <v>2058</v>
       </c>
       <c r="E94" s="6">
         <v>2019</v>
@@ -3466,17 +3711,17 @@
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="1:10" ht="21">
-      <c r="A95" s="5" t="s">
-        <v>230</v>
+      <c r="A95" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="B95" s="3">
-        <v>2437468</v>
+        <v>3540921</v>
       </c>
       <c r="C95" s="3">
-        <v>1048356</v>
+        <v>1522880</v>
       </c>
       <c r="D95" s="3">
-        <v>1389111</v>
+        <v>2018042</v>
       </c>
       <c r="E95" s="6">
         <v>2019</v>
@@ -3490,17 +3735,17 @@
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="1:10" ht="21">
-      <c r="A96" s="5" t="s">
-        <v>89</v>
+      <c r="A96" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="B96" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E96" s="6">
         <v>2019</v>
@@ -3514,17 +3759,17 @@
       <c r="J96" s="2"/>
     </row>
     <row r="97" spans="1:10" ht="21">
-      <c r="A97" s="5" t="s">
-        <v>90</v>
+      <c r="A97" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="B97" s="3">
-        <v>170899</v>
+        <v>248215</v>
       </c>
       <c r="C97" s="3">
-        <v>120120</v>
+        <v>174474</v>
       </c>
       <c r="D97" s="3">
-        <v>50780</v>
+        <v>73742</v>
       </c>
       <c r="E97" s="6">
         <v>2019</v>
@@ -3538,17 +3783,17 @@
       <c r="J97" s="2"/>
     </row>
     <row r="98" spans="1:10" ht="21">
-      <c r="A98" s="5" t="s">
-        <v>91</v>
+      <c r="A98" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="B98" s="3">
-        <v>283380</v>
+        <v>411643</v>
       </c>
       <c r="C98" s="3">
-        <v>245071</v>
+        <v>355991</v>
       </c>
       <c r="D98" s="3">
-        <v>38308</v>
+        <v>55652</v>
       </c>
       <c r="E98" s="6">
         <v>2019</v>
@@ -3562,17 +3807,17 @@
       <c r="J98" s="2"/>
     </row>
     <row r="99" spans="1:10" ht="21">
-      <c r="A99" s="5" t="s">
-        <v>92</v>
+      <c r="A99" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="B99" s="3">
-        <v>102435</v>
+        <v>148810</v>
       </c>
       <c r="C99" s="3">
-        <v>96256</v>
+        <v>139819</v>
       </c>
       <c r="D99" s="3">
-        <v>6179</v>
+        <v>8991</v>
       </c>
       <c r="E99" s="6">
         <v>2019</v>
@@ -3586,17 +3831,17 @@
       <c r="J99" s="2"/>
     </row>
     <row r="100" spans="1:10" ht="21">
-      <c r="A100" s="5" t="s">
-        <v>93</v>
+      <c r="A100" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="B100" s="3">
-        <v>78016</v>
+        <v>113319</v>
       </c>
       <c r="C100" s="3">
-        <v>66759</v>
+        <v>96970</v>
       </c>
       <c r="D100" s="3">
-        <v>11257</v>
+        <v>16349</v>
       </c>
       <c r="E100" s="6">
         <v>2019</v>
@@ -3610,17 +3855,17 @@
       <c r="J100" s="2"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="5" t="s">
-        <v>94</v>
+      <c r="A101" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="B101" s="3">
-        <v>45415</v>
+        <v>65965</v>
       </c>
       <c r="C101" s="3">
-        <v>43033</v>
+        <v>62504</v>
       </c>
       <c r="D101" s="3">
-        <v>2382</v>
+        <v>3461</v>
       </c>
       <c r="E101" s="6">
         <v>2019</v>
@@ -3634,17 +3879,17 @@
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="1:10" ht="21">
-      <c r="A102" s="5" t="s">
-        <v>95</v>
+      <c r="A102" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="B102" s="3">
-        <v>22418</v>
+        <v>32574</v>
       </c>
       <c r="C102" s="3">
-        <v>16355</v>
+        <v>23768</v>
       </c>
       <c r="D102" s="3">
-        <v>6063</v>
+        <v>8807</v>
       </c>
       <c r="E102" s="6">
         <v>2019</v>
@@ -3658,17 +3903,17 @@
       <c r="J102" s="2"/>
     </row>
     <row r="103" spans="1:10" ht="21">
-      <c r="A103" s="5" t="s">
-        <v>96</v>
+      <c r="A103" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="B103" s="3">
-        <v>343750</v>
+        <v>499356</v>
       </c>
       <c r="C103" s="3">
-        <v>113955</v>
+        <v>165524</v>
       </c>
       <c r="D103" s="3">
-        <v>229796</v>
+        <v>333832</v>
       </c>
       <c r="E103" s="6">
         <v>2019</v>
@@ -3682,17 +3927,17 @@
       <c r="J103" s="2"/>
     </row>
     <row r="104" spans="1:10" ht="21">
-      <c r="A104" s="5" t="s">
-        <v>231</v>
+      <c r="A104" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="B104" s="3">
-        <v>233090</v>
+        <v>338621</v>
       </c>
       <c r="C104" s="3">
-        <v>73016</v>
+        <v>106062</v>
       </c>
       <c r="D104" s="3">
-        <v>160073</v>
+        <v>232559</v>
       </c>
       <c r="E104" s="6">
         <v>2019</v>
@@ -3706,17 +3951,17 @@
       <c r="J104" s="2"/>
     </row>
     <row r="105" spans="1:10" ht="21">
-      <c r="A105" s="5" t="s">
-        <v>97</v>
+      <c r="A105" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="B105" s="3">
-        <v>43280</v>
+        <v>62873</v>
       </c>
       <c r="C105" s="3">
-        <v>19238</v>
+        <v>27946</v>
       </c>
       <c r="D105" s="3">
-        <v>24042</v>
+        <v>34927</v>
       </c>
       <c r="E105" s="6">
         <v>2019</v>
@@ -3730,17 +3975,17 @@
       <c r="J105" s="2"/>
     </row>
     <row r="106" spans="1:10" ht="21">
-      <c r="A106" s="5" t="s">
-        <v>232</v>
+      <c r="A106" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="B106" s="3">
-        <v>4824</v>
+        <v>7006</v>
       </c>
       <c r="C106" s="3">
-        <v>4301</v>
+        <v>6246</v>
       </c>
       <c r="D106" s="2">
-        <v>524</v>
+        <v>759</v>
       </c>
       <c r="E106" s="6">
         <v>2019</v>
@@ -3754,17 +3999,17 @@
       <c r="J106" s="2"/>
     </row>
     <row r="107" spans="1:10" ht="21">
-      <c r="A107" s="5" t="s">
-        <v>98</v>
+      <c r="A107" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="B107" s="2">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="C107" s="2">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E107" s="6">
         <v>2019</v>
@@ -3778,17 +4023,17 @@
       <c r="J107" s="2"/>
     </row>
     <row r="108" spans="1:10" ht="21">
-      <c r="A108" s="5" t="s">
-        <v>99</v>
+      <c r="A108" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="B108" s="3">
-        <v>3029</v>
+        <v>4400</v>
       </c>
       <c r="C108" s="3">
-        <v>2939</v>
+        <v>4269</v>
       </c>
       <c r="D108" s="2">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="E108" s="6">
         <v>2019</v>
@@ -3802,17 +4047,17 @@
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="1:10" ht="21">
-      <c r="A109" s="5" t="s">
-        <v>100</v>
+      <c r="A109" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B109" s="3">
-        <v>8088</v>
+        <v>11748</v>
       </c>
       <c r="C109" s="3">
-        <v>1962</v>
+        <v>2849</v>
       </c>
       <c r="D109" s="3">
-        <v>6126</v>
+        <v>8899</v>
       </c>
       <c r="E109" s="6">
         <v>2019</v>
@@ -3826,14 +4071,14 @@
       <c r="J109" s="2"/>
     </row>
     <row r="110" spans="1:10" ht="21">
-      <c r="A110" s="5" t="s">
-        <v>101</v>
+      <c r="A110" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="B110" s="3">
-        <v>2595</v>
+        <v>3770</v>
       </c>
       <c r="C110" s="3">
-        <v>2595</v>
+        <v>3770</v>
       </c>
       <c r="D110" s="2">
         <v>0</v>
@@ -3850,17 +4095,17 @@
       <c r="J110" s="2"/>
     </row>
     <row r="111" spans="1:10" ht="21">
-      <c r="A111" s="5" t="s">
-        <v>102</v>
+      <c r="A111" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="B111" s="3">
-        <v>110084</v>
+        <v>159941</v>
       </c>
       <c r="C111" s="3">
-        <v>9535</v>
+        <v>13852</v>
       </c>
       <c r="D111" s="3">
-        <v>100549</v>
+        <v>146089</v>
       </c>
       <c r="E111" s="6">
         <v>2019</v>
@@ -3874,17 +4119,17 @@
       <c r="J111" s="2"/>
     </row>
     <row r="112" spans="1:10" ht="21">
-      <c r="A112" s="5" t="s">
-        <v>103</v>
+      <c r="A112" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="B112" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C112" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D112" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112" s="6">
         <v>2019</v>
@@ -3898,17 +4143,17 @@
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10" ht="21">
-      <c r="A113" s="5" t="s">
-        <v>104</v>
+      <c r="A113" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="B113" s="3">
-        <v>1529352</v>
+        <v>2221206</v>
       </c>
       <c r="C113" s="3">
-        <v>1149870</v>
+        <v>1670278</v>
       </c>
       <c r="D113" s="3">
-        <v>379482</v>
+        <v>550928</v>
       </c>
       <c r="E113" s="6">
         <v>2019</v>
@@ -3922,17 +4167,17 @@
       <c r="J113" s="2"/>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="5" t="s">
-        <v>105</v>
+      <c r="A114" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="B114" s="3">
-        <v>722328</v>
+        <v>1049055</v>
       </c>
       <c r="C114" s="3">
-        <v>420278</v>
+        <v>610589</v>
       </c>
       <c r="D114" s="3">
-        <v>302050</v>
+        <v>438466</v>
       </c>
       <c r="E114" s="6">
         <v>2019</v>
@@ -3946,17 +4191,17 @@
       <c r="J114" s="2"/>
     </row>
     <row r="115" spans="1:10" ht="21">
-      <c r="A115" s="5" t="s">
-        <v>106</v>
+      <c r="A115" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="B115" s="3">
-        <v>5671656</v>
+        <v>8233908</v>
       </c>
       <c r="C115" s="3">
-        <v>4169167</v>
+        <v>6054246</v>
       </c>
       <c r="D115" s="3">
-        <v>1502489</v>
+        <v>2179662</v>
       </c>
       <c r="E115" s="6">
         <v>2019</v>
@@ -3970,17 +4215,17 @@
       <c r="J115" s="2"/>
     </row>
     <row r="116" spans="1:10" ht="21">
-      <c r="A116" s="5" t="s">
-        <v>107</v>
+      <c r="A116" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="B116" s="3">
-        <v>10979427</v>
+        <v>15948126</v>
       </c>
       <c r="C116" s="3">
-        <v>4690023</v>
+        <v>6812793</v>
       </c>
       <c r="D116" s="3">
-        <v>6289403</v>
+        <v>9135332</v>
       </c>
       <c r="E116" s="6">
         <v>2019</v>
@@ -3994,17 +4239,17 @@
       <c r="J116" s="2"/>
     </row>
     <row r="117" spans="1:10" ht="21">
-      <c r="A117" s="5" t="s">
-        <v>108</v>
+      <c r="A117" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="B117" s="3">
-        <v>3601752</v>
+        <v>5229733</v>
       </c>
       <c r="C117" s="3">
-        <v>1893041</v>
+        <v>2749822</v>
       </c>
       <c r="D117" s="3">
-        <v>1708711</v>
+        <v>2479911</v>
       </c>
       <c r="E117" s="6">
         <v>2019</v>
@@ -4018,17 +4263,17 @@
       <c r="J117" s="2"/>
     </row>
     <row r="118" spans="1:10" ht="21">
-      <c r="A118" s="5" t="s">
-        <v>109</v>
+      <c r="A118" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="B118" s="3">
-        <v>939714</v>
+        <v>1365178</v>
       </c>
       <c r="C118" s="3">
-        <v>217293</v>
+        <v>315676</v>
       </c>
       <c r="D118" s="3">
-        <v>722421</v>
+        <v>1049502</v>
       </c>
       <c r="E118" s="6">
         <v>2019</v>
@@ -4042,17 +4287,17 @@
       <c r="J118" s="2"/>
     </row>
     <row r="119" spans="1:10" ht="21">
-      <c r="A119" s="5" t="s">
-        <v>110</v>
+      <c r="A119" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="B119" s="3">
-        <v>3328259</v>
+        <v>4832288</v>
       </c>
       <c r="C119" s="3">
-        <v>2049554</v>
+        <v>2977319</v>
       </c>
       <c r="D119" s="3">
-        <v>1278704</v>
+        <v>1854969</v>
       </c>
       <c r="E119" s="6">
         <v>2019</v>
@@ -4066,17 +4311,17 @@
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="1:10" ht="21">
-      <c r="A120" s="5" t="s">
-        <v>111</v>
+      <c r="A120" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="B120" s="3">
-        <v>47444</v>
+        <v>68900</v>
       </c>
       <c r="C120" s="3">
-        <v>31650</v>
+        <v>45978</v>
       </c>
       <c r="D120" s="3">
-        <v>15794</v>
+        <v>22921</v>
       </c>
       <c r="E120" s="6">
         <v>2019</v>
@@ -4090,17 +4335,17 @@
       <c r="J120" s="2"/>
     </row>
     <row r="121" spans="1:10" ht="21">
-      <c r="A121" s="5" t="s">
-        <v>112</v>
+      <c r="A121" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="B121" s="3">
-        <v>4954371</v>
+        <v>7196464</v>
       </c>
       <c r="C121" s="3">
-        <v>4383531</v>
+        <v>6368130</v>
       </c>
       <c r="D121" s="3">
-        <v>570840</v>
+        <v>828334</v>
       </c>
       <c r="E121" s="6">
         <v>2019</v>
@@ -4114,17 +4359,17 @@
       <c r="J121" s="2"/>
     </row>
     <row r="122" spans="1:10" ht="21">
-      <c r="A122" s="5" t="s">
-        <v>113</v>
+      <c r="A122" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="B122" s="3">
-        <v>462785</v>
+        <v>672310</v>
       </c>
       <c r="C122" s="3">
-        <v>420024</v>
+        <v>610216</v>
       </c>
       <c r="D122" s="3">
-        <v>42761</v>
+        <v>62094</v>
       </c>
       <c r="E122" s="6">
         <v>2019</v>
@@ -4138,17 +4383,17 @@
       <c r="J122" s="2"/>
     </row>
     <row r="123" spans="1:10" ht="21">
-      <c r="A123" s="5" t="s">
-        <v>114</v>
+      <c r="A123" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="B123" s="3">
-        <v>424970</v>
+        <v>617255</v>
       </c>
       <c r="C123" s="3">
-        <v>261732</v>
+        <v>380194</v>
       </c>
       <c r="D123" s="3">
-        <v>163237</v>
+        <v>237061</v>
       </c>
       <c r="E123" s="6">
         <v>2019</v>
@@ -4162,17 +4407,17 @@
       <c r="J123" s="2"/>
     </row>
     <row r="124" spans="1:10" ht="21">
-      <c r="A124" s="5" t="s">
-        <v>115</v>
+      <c r="A124" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="B124" s="3">
-        <v>2253396</v>
+        <v>3272834</v>
       </c>
       <c r="C124" s="3">
-        <v>1786277</v>
+        <v>2594766</v>
       </c>
       <c r="D124" s="3">
-        <v>467119</v>
+        <v>678068</v>
       </c>
       <c r="E124" s="6">
         <v>2019</v>
@@ -4186,17 +4431,17 @@
       <c r="J124" s="2"/>
     </row>
     <row r="125" spans="1:10" ht="21">
-      <c r="A125" s="5" t="s">
-        <v>116</v>
+      <c r="A125" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="B125" s="3">
-        <v>35998</v>
+        <v>52307</v>
       </c>
       <c r="C125" s="3">
-        <v>30327</v>
+        <v>44069</v>
       </c>
       <c r="D125" s="3">
-        <v>5671</v>
+        <v>8238</v>
       </c>
       <c r="E125" s="6">
         <v>2019</v>
@@ -4210,17 +4455,17 @@
       <c r="J125" s="2"/>
     </row>
     <row r="126" spans="1:10" ht="21">
-      <c r="A126" s="5" t="s">
-        <v>233</v>
+      <c r="A126" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="B126" s="2">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="C126" s="2">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="D126" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E126" s="6">
         <v>2019</v>
@@ -4234,17 +4479,17 @@
       <c r="J126" s="2"/>
     </row>
     <row r="127" spans="1:10" ht="21">
-      <c r="A127" s="5" t="s">
-        <v>117</v>
+      <c r="A127" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="B127" s="3">
-        <v>641033</v>
+        <v>930796</v>
       </c>
       <c r="C127" s="3">
-        <v>183210</v>
+        <v>266035</v>
       </c>
       <c r="D127" s="3">
-        <v>457822</v>
+        <v>664761</v>
       </c>
       <c r="E127" s="6">
         <v>2019</v>
@@ -4258,17 +4503,17 @@
       <c r="J127" s="2"/>
     </row>
     <row r="128" spans="1:10" ht="21">
-      <c r="A128" s="5" t="s">
-        <v>118</v>
+      <c r="A128" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="B128" s="3">
-        <v>161644</v>
+        <v>234770</v>
       </c>
       <c r="C128" s="3">
-        <v>98165</v>
+        <v>142587</v>
       </c>
       <c r="D128" s="3">
-        <v>63479</v>
+        <v>92183</v>
       </c>
       <c r="E128" s="6">
         <v>2019</v>
@@ -4282,17 +4527,17 @@
       <c r="J128" s="2"/>
     </row>
     <row r="129" spans="1:10" ht="21">
-      <c r="A129" s="5" t="s">
-        <v>119</v>
+      <c r="A129" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="B129" s="3">
-        <v>477562</v>
+        <v>693340</v>
       </c>
       <c r="C129" s="3">
-        <v>188622</v>
+        <v>274017</v>
       </c>
       <c r="D129" s="3">
-        <v>288940</v>
+        <v>419323</v>
       </c>
       <c r="E129" s="6">
         <v>2019</v>
@@ -4306,17 +4551,17 @@
       <c r="J129" s="2"/>
     </row>
     <row r="130" spans="1:10" ht="21">
-      <c r="A130" s="5" t="s">
-        <v>120</v>
+      <c r="A130" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="B130" s="2">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="C130" s="2">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="D130" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" s="6">
         <v>2019</v>
@@ -4330,17 +4575,17 @@
       <c r="J130" s="2"/>
     </row>
     <row r="131" spans="1:10" ht="21">
-      <c r="A131" s="5" t="s">
-        <v>121</v>
+      <c r="A131" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="B131" s="3">
-        <v>654847</v>
+        <v>951432</v>
       </c>
       <c r="C131" s="3">
-        <v>407129</v>
+        <v>591453</v>
       </c>
       <c r="D131" s="3">
-        <v>247718</v>
+        <v>359979</v>
       </c>
       <c r="E131" s="6">
         <v>2019</v>
@@ -4354,17 +4599,17 @@
       <c r="J131" s="2"/>
     </row>
     <row r="132" spans="1:10" ht="21">
-      <c r="A132" s="5" t="s">
-        <v>122</v>
+      <c r="A132" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="B132" s="3">
-        <v>12573</v>
+        <v>18265</v>
       </c>
       <c r="C132" s="3">
-        <v>5900</v>
+        <v>8570</v>
       </c>
       <c r="D132" s="3">
-        <v>6673</v>
+        <v>9695</v>
       </c>
       <c r="E132" s="6">
         <v>2019</v>
@@ -4378,17 +4623,17 @@
       <c r="J132" s="2"/>
     </row>
     <row r="133" spans="1:10" ht="21">
-      <c r="A133" s="5" t="s">
-        <v>123</v>
+      <c r="A133" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="B133" s="3">
-        <v>8966</v>
+        <v>13095</v>
       </c>
       <c r="C133" s="3">
-        <v>3024</v>
+        <v>4400</v>
       </c>
       <c r="D133" s="3">
-        <v>5942</v>
+        <v>8695</v>
       </c>
       <c r="E133" s="6">
         <v>2019</v>
@@ -4402,17 +4647,17 @@
       <c r="J133" s="2"/>
     </row>
     <row r="134" spans="1:10" ht="21">
-      <c r="A134" s="5" t="s">
-        <v>124</v>
+      <c r="A134" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="B134" s="3">
-        <v>95022</v>
+        <v>138096</v>
       </c>
       <c r="C134" s="3">
-        <v>72400</v>
+        <v>105233</v>
       </c>
       <c r="D134" s="3">
-        <v>22622</v>
+        <v>32863</v>
       </c>
       <c r="E134" s="6">
         <v>2019</v>
@@ -4426,17 +4671,17 @@
       <c r="J134" s="2"/>
     </row>
     <row r="135" spans="1:10" ht="21">
-      <c r="A135" s="5" t="s">
-        <v>125</v>
+      <c r="A135" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="B135" s="3">
-        <v>2444</v>
+        <v>3547</v>
       </c>
       <c r="C135" s="3">
-        <v>1837</v>
+        <v>2669</v>
       </c>
       <c r="D135" s="2">
-        <v>607</v>
+        <v>878</v>
       </c>
       <c r="E135" s="6">
         <v>2019</v>
@@ -4450,17 +4695,17 @@
       <c r="J135" s="2"/>
     </row>
     <row r="136" spans="1:10" ht="21">
-      <c r="A136" s="5" t="s">
-        <v>126</v>
+      <c r="A136" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="B136" s="3">
-        <v>391165</v>
+        <v>567973</v>
       </c>
       <c r="C136" s="3">
-        <v>221205</v>
+        <v>321349</v>
       </c>
       <c r="D136" s="3">
-        <v>169959</v>
+        <v>246624</v>
       </c>
       <c r="E136" s="6">
         <v>2019</v>
@@ -4474,17 +4719,17 @@
       <c r="J136" s="2"/>
     </row>
     <row r="137" spans="1:10" ht="21">
-      <c r="A137" s="5" t="s">
-        <v>127</v>
+      <c r="A137" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="B137" s="3">
-        <v>1829528</v>
+        <v>2657827</v>
       </c>
       <c r="C137" s="3">
-        <v>1592428</v>
+        <v>2313517</v>
       </c>
       <c r="D137" s="3">
-        <v>237100</v>
+        <v>344310</v>
       </c>
       <c r="E137" s="6">
         <v>2019</v>
@@ -4498,17 +4743,17 @@
       <c r="J137" s="2"/>
     </row>
     <row r="138" spans="1:10" ht="21">
-      <c r="A138" s="5" t="s">
-        <v>128</v>
+      <c r="A138" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="B138" s="3">
-        <v>444102</v>
+        <v>645174</v>
       </c>
       <c r="C138" s="3">
-        <v>283116</v>
+        <v>411253</v>
       </c>
       <c r="D138" s="3">
-        <v>160986</v>
+        <v>233921</v>
       </c>
       <c r="E138" s="6">
         <v>2019</v>
@@ -4522,17 +4767,17 @@
       <c r="J138" s="2"/>
     </row>
     <row r="139" spans="1:10" ht="21">
-      <c r="A139" s="5" t="s">
-        <v>129</v>
+      <c r="A139" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="B139" s="2">
-        <v>298</v>
+        <v>433</v>
       </c>
       <c r="C139" s="2">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="D139" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E139" s="6">
         <v>2019</v>
@@ -4546,17 +4791,17 @@
       <c r="J139" s="2"/>
     </row>
     <row r="140" spans="1:10" ht="21">
-      <c r="A140" s="5" t="s">
-        <v>130</v>
+      <c r="A140" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="B140" s="3">
-        <v>1010636</v>
+        <v>1467598</v>
       </c>
       <c r="C140" s="3">
-        <v>512970</v>
+        <v>745177</v>
       </c>
       <c r="D140" s="3">
-        <v>497666</v>
+        <v>722421</v>
       </c>
       <c r="E140" s="6">
         <v>2019</v>
@@ -4570,17 +4815,17 @@
       <c r="J140" s="2"/>
     </row>
     <row r="141" spans="1:10" ht="21">
-      <c r="A141" s="5" t="s">
-        <v>131</v>
+      <c r="A141" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="B141" s="3">
-        <v>2034118</v>
+        <v>2955833</v>
       </c>
       <c r="C141" s="3">
-        <v>256476</v>
+        <v>372569</v>
       </c>
       <c r="D141" s="3">
-        <v>1777642</v>
+        <v>2583264</v>
       </c>
       <c r="E141" s="6">
         <v>2019</v>
@@ -4594,17 +4839,17 @@
       <c r="J141" s="2"/>
     </row>
     <row r="142" spans="1:10" ht="21">
-      <c r="A142" s="5" t="s">
-        <v>132</v>
+      <c r="A142" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="B142" s="3">
-        <v>62836</v>
+        <v>91258</v>
       </c>
       <c r="C142" s="3">
-        <v>49440</v>
+        <v>71829</v>
       </c>
       <c r="D142" s="3">
-        <v>13396</v>
+        <v>19430</v>
       </c>
       <c r="E142" s="6">
         <v>2019</v>
@@ -4618,17 +4863,17 @@
       <c r="J142" s="2"/>
     </row>
     <row r="143" spans="1:10" ht="21">
-      <c r="A143" s="5" t="s">
-        <v>133</v>
+      <c r="A143" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="B143" s="3">
-        <v>71215</v>
+        <v>103416</v>
       </c>
       <c r="C143" s="3">
-        <v>61178</v>
+        <v>88866</v>
       </c>
       <c r="D143" s="3">
-        <v>10036</v>
+        <v>14550</v>
       </c>
       <c r="E143" s="6">
         <v>2019</v>
@@ -4642,17 +4887,17 @@
       <c r="J143" s="2"/>
     </row>
     <row r="144" spans="1:10" ht="21">
-      <c r="A144" s="5" t="s">
-        <v>234</v>
+      <c r="A144" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B144" s="3">
-        <v>123331</v>
+        <v>179137</v>
       </c>
       <c r="C144" s="3">
-        <v>99428</v>
+        <v>144451</v>
       </c>
       <c r="D144" s="3">
-        <v>23904</v>
+        <v>34686</v>
       </c>
       <c r="E144" s="6">
         <v>2019</v>
@@ -4666,17 +4911,17 @@
       <c r="J144" s="2"/>
     </row>
     <row r="145" spans="1:10" ht="21">
-      <c r="A145" s="5" t="s">
-        <v>134</v>
+      <c r="A145" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="B145" s="3">
-        <v>81220</v>
+        <v>117995</v>
       </c>
       <c r="C145" s="3">
-        <v>78803</v>
+        <v>114484</v>
       </c>
       <c r="D145" s="3">
-        <v>2418</v>
+        <v>3511</v>
       </c>
       <c r="E145" s="6">
         <v>2019</v>
@@ -4690,17 +4935,17 @@
       <c r="J145" s="2"/>
     </row>
     <row r="146" spans="1:10" ht="21">
-      <c r="A146" s="5" t="s">
-        <v>135</v>
+      <c r="A146" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="B146" s="3">
-        <v>56843</v>
+        <v>82576</v>
       </c>
       <c r="C146" s="3">
-        <v>12590</v>
+        <v>18290</v>
       </c>
       <c r="D146" s="3">
-        <v>44253</v>
+        <v>64286</v>
       </c>
       <c r="E146" s="6">
         <v>2019</v>
@@ -4714,17 +4959,17 @@
       <c r="J146" s="2"/>
     </row>
     <row r="147" spans="1:10" ht="21">
-      <c r="A147" s="5" t="s">
-        <v>136</v>
+      <c r="A147" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="B147" s="3">
-        <v>39925</v>
+        <v>58004</v>
       </c>
       <c r="C147" s="3">
-        <v>34657</v>
+        <v>50350</v>
       </c>
       <c r="D147" s="3">
-        <v>5268</v>
+        <v>7654</v>
       </c>
       <c r="E147" s="6">
         <v>2019</v>
@@ -4738,17 +4983,17 @@
       <c r="J147" s="2"/>
     </row>
     <row r="148" spans="1:10" ht="21">
-      <c r="A148" s="5" t="s">
-        <v>137</v>
+      <c r="A148" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="B148" s="3">
-        <v>185545</v>
+        <v>269598</v>
       </c>
       <c r="C148" s="3">
-        <v>127784</v>
+        <v>185683</v>
       </c>
       <c r="D148" s="3">
-        <v>57761</v>
+        <v>83915</v>
       </c>
       <c r="E148" s="6">
         <v>2019</v>
@@ -4762,17 +5007,17 @@
       <c r="J148" s="2"/>
     </row>
     <row r="149" spans="1:10" ht="21">
-      <c r="A149" s="5" t="s">
-        <v>138</v>
+      <c r="A149" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="B149" s="3">
-        <v>10282</v>
+        <v>14933</v>
       </c>
       <c r="C149" s="3">
-        <v>7149</v>
+        <v>10385</v>
       </c>
       <c r="D149" s="3">
-        <v>3133</v>
+        <v>4547</v>
       </c>
       <c r="E149" s="6">
         <v>2019</v>
@@ -4786,17 +5031,17 @@
       <c r="J149" s="2"/>
     </row>
     <row r="150" spans="1:10" ht="21">
-      <c r="A150" s="5" t="s">
-        <v>139</v>
+      <c r="A150" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="B150" s="3">
-        <v>6478215</v>
+        <v>9412553</v>
       </c>
       <c r="C150" s="3">
-        <v>3080518</v>
+        <v>4475338</v>
       </c>
       <c r="D150" s="3">
-        <v>3397698</v>
+        <v>4937215</v>
       </c>
       <c r="E150" s="6">
         <v>2019</v>
@@ -4810,17 +5055,17 @@
       <c r="J150" s="2"/>
     </row>
     <row r="151" spans="1:10" ht="21">
-      <c r="A151" s="5" t="s">
-        <v>235</v>
+      <c r="A151" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="B151" s="3">
-        <v>844789</v>
+        <v>1227073</v>
       </c>
       <c r="C151" s="3">
-        <v>560101</v>
+        <v>813538</v>
       </c>
       <c r="D151" s="3">
-        <v>284688</v>
+        <v>413535</v>
       </c>
       <c r="E151" s="6">
         <v>2019</v>
@@ -4834,17 +5079,17 @@
       <c r="J151" s="2"/>
     </row>
     <row r="152" spans="1:10" ht="21">
-      <c r="A152" s="5" t="s">
-        <v>236</v>
+      <c r="A152" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="B152" s="3">
-        <v>228122</v>
+        <v>331434</v>
       </c>
       <c r="C152" s="3">
-        <v>194173</v>
+        <v>282131</v>
       </c>
       <c r="D152" s="3">
-        <v>33949</v>
+        <v>49303</v>
       </c>
       <c r="E152" s="6">
         <v>2019</v>
@@ -4858,17 +5103,17 @@
       <c r="J152" s="2"/>
     </row>
     <row r="153" spans="1:10" ht="21">
-      <c r="A153" s="5" t="s">
-        <v>140</v>
+      <c r="A153" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="B153" s="3">
-        <v>86829</v>
+        <v>126119</v>
       </c>
       <c r="C153" s="3">
-        <v>79338</v>
+        <v>115248</v>
       </c>
       <c r="D153" s="3">
-        <v>7491</v>
+        <v>10871</v>
       </c>
       <c r="E153" s="6">
         <v>2019</v>
@@ -4882,17 +5127,17 @@
       <c r="J153" s="2"/>
     </row>
     <row r="154" spans="1:10" ht="21">
-      <c r="A154" s="5" t="s">
-        <v>141</v>
+      <c r="A154" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="B154" s="3">
-        <v>1037732</v>
+        <v>1507362</v>
       </c>
       <c r="C154" s="3">
-        <v>767313</v>
+        <v>1114738</v>
       </c>
       <c r="D154" s="3">
-        <v>270419</v>
+        <v>392624</v>
       </c>
       <c r="E154" s="6">
         <v>2019</v>
@@ -4906,17 +5151,17 @@
       <c r="J154" s="2"/>
     </row>
     <row r="155" spans="1:10" ht="21">
-      <c r="A155" s="5" t="s">
-        <v>142</v>
+      <c r="A155" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="B155" s="3">
-        <v>653234</v>
+        <v>949373</v>
       </c>
       <c r="C155" s="3">
-        <v>201278</v>
+        <v>292393</v>
       </c>
       <c r="D155" s="3">
-        <v>451956</v>
+        <v>656981</v>
       </c>
       <c r="E155" s="6">
         <v>2019</v>
@@ -4930,17 +5175,17 @@
       <c r="J155" s="2"/>
     </row>
     <row r="156" spans="1:10" ht="21">
-      <c r="A156" s="5" t="s">
-        <v>237</v>
+      <c r="A156" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="B156" s="3">
-        <v>14728</v>
+        <v>21372</v>
       </c>
       <c r="C156" s="3">
-        <v>5789</v>
+        <v>8407</v>
       </c>
       <c r="D156" s="3">
-        <v>8939</v>
+        <v>12965</v>
       </c>
       <c r="E156" s="6">
         <v>2019</v>
@@ -4954,17 +5199,17 @@
       <c r="J156" s="2"/>
     </row>
     <row r="157" spans="1:10" ht="21">
-      <c r="A157" s="5" t="s">
-        <v>143</v>
+      <c r="A157" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="B157" s="3">
-        <v>10720</v>
+        <v>15572</v>
       </c>
       <c r="C157" s="3">
-        <v>6686</v>
+        <v>9713</v>
       </c>
       <c r="D157" s="3">
-        <v>4034</v>
+        <v>5859</v>
       </c>
       <c r="E157" s="6">
         <v>2019</v>
@@ -4978,17 +5223,17 @@
       <c r="J157" s="2"/>
     </row>
     <row r="158" spans="1:10" ht="21">
-      <c r="A158" s="5" t="s">
-        <v>144</v>
+      <c r="A158" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="B158" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C158" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E158" s="6">
         <v>2019</v>
@@ -5002,17 +5247,17 @@
       <c r="J158" s="2"/>
     </row>
     <row r="159" spans="1:10" ht="21">
-      <c r="A159" s="5" t="s">
-        <v>145</v>
+      <c r="A159" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="B159" s="3">
-        <v>6262</v>
+        <v>9098</v>
       </c>
       <c r="C159" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D159" s="3">
-        <v>6241</v>
+        <v>9067</v>
       </c>
       <c r="E159" s="6">
         <v>2019</v>
@@ -5026,17 +5271,17 @@
       <c r="J159" s="2"/>
     </row>
     <row r="160" spans="1:10" ht="21">
-      <c r="A160" s="5" t="s">
-        <v>146</v>
+      <c r="A160" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="B160" s="3">
-        <v>89277</v>
+        <v>129656</v>
       </c>
       <c r="C160" s="3">
-        <v>60808</v>
+        <v>88316</v>
       </c>
       <c r="D160" s="3">
-        <v>28469</v>
+        <v>41340</v>
       </c>
       <c r="E160" s="6">
         <v>2019</v>
@@ -5050,17 +5295,17 @@
       <c r="J160" s="2"/>
     </row>
     <row r="161" spans="1:10" ht="21">
-      <c r="A161" s="5" t="s">
-        <v>147</v>
+      <c r="A161" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="B161" s="3">
-        <v>6052</v>
+        <v>8800</v>
       </c>
       <c r="C161" s="3">
-        <v>5850</v>
+        <v>8505</v>
       </c>
       <c r="D161" s="2">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c r="E161" s="6">
         <v>2019</v>
@@ -5074,17 +5319,17 @@
       <c r="J161" s="2"/>
     </row>
     <row r="162" spans="1:10" ht="21">
-      <c r="A162" s="5" t="s">
-        <v>238</v>
+      <c r="A162" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B162" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
       </c>
       <c r="D162" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E162" s="6">
         <v>2019</v>
@@ -5098,17 +5343,17 @@
       <c r="J162" s="2"/>
     </row>
     <row r="163" spans="1:10" ht="21">
-      <c r="A163" s="5" t="s">
-        <v>148</v>
+      <c r="A163" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="B163" s="3">
-        <v>19728120</v>
+        <v>28660589</v>
       </c>
       <c r="C163" s="3">
-        <v>9479615</v>
+        <v>13771081</v>
       </c>
       <c r="D163" s="3">
-        <v>10248506</v>
+        <v>14889508</v>
       </c>
       <c r="E163" s="6">
         <v>2019</v>
@@ -5122,17 +5367,17 @@
       <c r="J163" s="2"/>
     </row>
     <row r="164" spans="1:10" ht="21">
-      <c r="A164" s="5" t="s">
-        <v>149</v>
+      <c r="A164" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="B164" s="3">
-        <v>3210</v>
+        <v>4665</v>
       </c>
       <c r="C164" s="3">
-        <v>3205</v>
+        <v>4658</v>
       </c>
       <c r="D164" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E164" s="6">
         <v>2019</v>
@@ -5146,17 +5391,17 @@
       <c r="J164" s="2"/>
     </row>
     <row r="165" spans="1:10" ht="21">
-      <c r="A165" s="5" t="s">
-        <v>150</v>
+      <c r="A165" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="B165" s="3">
-        <v>848448</v>
+        <v>1232489</v>
       </c>
       <c r="C165" s="3">
-        <v>467054</v>
+        <v>678459</v>
       </c>
       <c r="D165" s="3">
-        <v>381395</v>
+        <v>554031</v>
       </c>
       <c r="E165" s="6">
         <v>2019</v>
@@ -5170,14 +5415,14 @@
       <c r="J165" s="2"/>
     </row>
     <row r="166" spans="1:10" ht="21">
-      <c r="A166" s="5" t="s">
-        <v>151</v>
+      <c r="A166" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="B166" s="3">
-        <v>2432</v>
+        <v>3532</v>
       </c>
       <c r="C166" s="3">
-        <v>2432</v>
+        <v>3532</v>
       </c>
       <c r="D166" s="2">
         <v>0</v>
@@ -5194,14 +5439,14 @@
       <c r="J166" s="2"/>
     </row>
     <row r="167" spans="1:10" ht="21">
-      <c r="A167" s="5" t="s">
-        <v>152</v>
+      <c r="A167" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="B167" s="3">
-        <v>20078</v>
+        <v>29173</v>
       </c>
       <c r="C167" s="3">
-        <v>20078</v>
+        <v>29172</v>
       </c>
       <c r="D167" s="2">
         <v>1</v>
@@ -5218,17 +5463,17 @@
       <c r="J167" s="2"/>
     </row>
     <row r="168" spans="1:10" ht="21">
-      <c r="A168" s="5" t="s">
-        <v>153</v>
+      <c r="A168" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="B168" s="3">
-        <v>6354</v>
+        <v>9229</v>
       </c>
       <c r="C168" s="3">
-        <v>4919</v>
+        <v>7144</v>
       </c>
       <c r="D168" s="3">
-        <v>1435</v>
+        <v>2085</v>
       </c>
       <c r="E168" s="6">
         <v>2019</v>
@@ -5242,17 +5487,17 @@
       <c r="J168" s="2"/>
     </row>
     <row r="169" spans="1:10" ht="21">
-      <c r="A169" s="5" t="s">
-        <v>154</v>
+      <c r="A169" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="B169" s="3">
-        <v>6189</v>
+        <v>8992</v>
       </c>
       <c r="C169" s="3">
-        <v>6179</v>
+        <v>8977</v>
       </c>
       <c r="D169" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E169" s="6">
         <v>2019</v>
@@ -5266,17 +5511,17 @@
       <c r="J169" s="2"/>
     </row>
     <row r="170" spans="1:10" ht="21">
-      <c r="A170" s="5" t="s">
-        <v>155</v>
+      <c r="A170" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="B170" s="3">
-        <v>64706</v>
+        <v>93990</v>
       </c>
       <c r="C170" s="3">
-        <v>53167</v>
+        <v>77228</v>
       </c>
       <c r="D170" s="3">
-        <v>11538</v>
+        <v>16763</v>
       </c>
       <c r="E170" s="6">
         <v>2019</v>
@@ -5290,8 +5535,8 @@
       <c r="J170" s="2"/>
     </row>
     <row r="171" spans="1:10" ht="21">
-      <c r="A171" s="5" t="s">
-        <v>156</v>
+      <c r="A171" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="B171" s="2">
         <v>0</v>
@@ -5300,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E171" s="6">
         <v>2019</v>
@@ -5314,17 +5559,17 @@
       <c r="J171" s="2"/>
     </row>
     <row r="172" spans="1:10" ht="21">
-      <c r="A172" s="5" t="s">
-        <v>157</v>
+      <c r="A172" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="B172" s="3">
-        <v>7007991</v>
+        <v>10181382</v>
       </c>
       <c r="C172" s="3">
-        <v>2031060</v>
+        <v>2950348</v>
       </c>
       <c r="D172" s="3">
-        <v>4976931</v>
+        <v>7231034</v>
       </c>
       <c r="E172" s="6">
         <v>2019</v>
@@ -5338,17 +5583,17 @@
       <c r="J172" s="2"/>
     </row>
     <row r="173" spans="1:10" ht="21">
-      <c r="A173" s="5" t="s">
-        <v>158</v>
+      <c r="A173" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="B173" s="3">
-        <v>2113</v>
+        <v>3081</v>
       </c>
       <c r="C173" s="3">
-        <v>2099</v>
+        <v>3061</v>
       </c>
       <c r="D173" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E173" s="6">
         <v>2019</v>
@@ -5362,17 +5607,17 @@
       <c r="J173" s="2"/>
     </row>
     <row r="174" spans="1:10" ht="21">
-      <c r="A174" s="5" t="s">
-        <v>159</v>
+      <c r="A174" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="B174" s="3">
-        <v>2293660</v>
+        <v>3332195</v>
       </c>
       <c r="C174" s="3">
-        <v>906986</v>
+        <v>1317745</v>
       </c>
       <c r="D174" s="3">
-        <v>1386674</v>
+        <v>2014450</v>
       </c>
       <c r="E174" s="6">
         <v>2019</v>
@@ -5386,17 +5631,17 @@
       <c r="J174" s="2"/>
     </row>
     <row r="175" spans="1:10" ht="21">
-      <c r="A175" s="5" t="s">
-        <v>160</v>
+      <c r="A175" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="B175" s="3">
-        <v>1039634</v>
+        <v>1510325</v>
       </c>
       <c r="C175" s="3">
-        <v>565694</v>
+        <v>821764</v>
       </c>
       <c r="D175" s="3">
-        <v>473940</v>
+        <v>688561</v>
       </c>
       <c r="E175" s="6">
         <v>2019</v>
@@ -5410,17 +5655,17 @@
       <c r="J175" s="2"/>
     </row>
     <row r="176" spans="1:10" ht="21">
-      <c r="A176" s="5" t="s">
-        <v>161</v>
+      <c r="A176" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="B176" s="3">
-        <v>2504</v>
+        <v>3637</v>
       </c>
       <c r="C176" s="3">
-        <v>2482</v>
+        <v>3605</v>
       </c>
       <c r="D176" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E176" s="6">
         <v>2019</v>
@@ -5434,17 +5679,17 @@
       <c r="J176" s="2"/>
     </row>
     <row r="177" spans="1:10" ht="21">
-      <c r="A177" s="5" t="s">
-        <v>162</v>
+      <c r="A177" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="B177" s="3">
-        <v>126867</v>
+        <v>184294</v>
       </c>
       <c r="C177" s="3">
-        <v>85298</v>
+        <v>123905</v>
       </c>
       <c r="D177" s="3">
-        <v>41570</v>
+        <v>60389</v>
       </c>
       <c r="E177" s="6">
         <v>2019</v>
@@ -5458,17 +5703,17 @@
       <c r="J177" s="2"/>
     </row>
     <row r="178" spans="1:10" ht="21">
-      <c r="A178" s="5" t="s">
-        <v>163</v>
+      <c r="A178" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="B178" s="3">
-        <v>78671</v>
+        <v>114193</v>
       </c>
       <c r="C178" s="3">
-        <v>61369</v>
+        <v>89155</v>
       </c>
       <c r="D178" s="3">
-        <v>17303</v>
+        <v>25038</v>
       </c>
       <c r="E178" s="6">
         <v>2019</v>
@@ -5482,17 +5727,17 @@
       <c r="J178" s="2"/>
     </row>
     <row r="179" spans="1:10" ht="21">
-      <c r="A179" s="5" t="s">
-        <v>164</v>
+      <c r="A179" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="B179" s="3">
-        <v>2519</v>
+        <v>3660</v>
       </c>
       <c r="C179" s="3">
-        <v>2519</v>
+        <v>3659</v>
       </c>
       <c r="D179" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179" s="6">
         <v>2019</v>
@@ -5506,17 +5751,17 @@
       <c r="J179" s="2"/>
     </row>
     <row r="180" spans="1:10" ht="21">
-      <c r="A180" s="5" t="s">
-        <v>165</v>
+      <c r="A180" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="B180" s="3">
-        <v>163686</v>
+        <v>237781</v>
       </c>
       <c r="C180" s="3">
-        <v>143572</v>
+        <v>208559</v>
       </c>
       <c r="D180" s="3">
-        <v>20114</v>
+        <v>29222</v>
       </c>
       <c r="E180" s="6">
         <v>2019</v>
@@ -5530,17 +5775,17 @@
       <c r="J180" s="2"/>
     </row>
     <row r="181" spans="1:10" ht="21">
-      <c r="A181" s="5" t="s">
-        <v>166</v>
+      <c r="A181" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="B181" s="3">
-        <v>475139</v>
+        <v>690181</v>
       </c>
       <c r="C181" s="3">
-        <v>223984</v>
+        <v>325335</v>
       </c>
       <c r="D181" s="3">
-        <v>251154</v>
+        <v>364846</v>
       </c>
       <c r="E181" s="6">
         <v>2019</v>
@@ -5554,14 +5799,14 @@
       <c r="J181" s="2"/>
     </row>
     <row r="182" spans="1:10" ht="21">
-      <c r="A182" s="5" t="s">
-        <v>167</v>
+      <c r="A182" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="B182" s="3">
-        <v>1112</v>
+        <v>1615</v>
       </c>
       <c r="C182" s="3">
-        <v>1111</v>
+        <v>1614</v>
       </c>
       <c r="D182" s="2">
         <v>0</v>
@@ -5578,14 +5823,14 @@
       <c r="J182" s="2"/>
     </row>
     <row r="183" spans="1:10" ht="21">
-      <c r="A183" s="5" t="s">
-        <v>168</v>
+      <c r="A183" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="B183" s="3">
-        <v>1105</v>
+        <v>1605</v>
       </c>
       <c r="C183" s="3">
-        <v>1105</v>
+        <v>1605</v>
       </c>
       <c r="D183" s="2">
         <v>0</v>
@@ -5602,14 +5847,14 @@
       <c r="J183" s="2"/>
     </row>
     <row r="184" spans="1:10" ht="21">
-      <c r="A184" s="5" t="s">
-        <v>169</v>
+      <c r="A184" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="B184" s="3">
-        <v>2718</v>
+        <v>3948</v>
       </c>
       <c r="C184" s="3">
-        <v>2718</v>
+        <v>3948</v>
       </c>
       <c r="D184" s="2">
         <v>0</v>
@@ -5626,17 +5871,17 @@
       <c r="J184" s="2"/>
     </row>
     <row r="185" spans="1:10" ht="21">
-      <c r="A185" s="5" t="s">
-        <v>170</v>
+      <c r="A185" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="B185" s="3">
-        <v>158133</v>
+        <v>229705</v>
       </c>
       <c r="C185" s="3">
-        <v>147844</v>
+        <v>214756</v>
       </c>
       <c r="D185" s="3">
-        <v>10289</v>
+        <v>14949</v>
       </c>
       <c r="E185" s="6">
         <v>2019</v>
@@ -5650,17 +5895,17 @@
       <c r="J185" s="2"/>
     </row>
     <row r="186" spans="1:10" ht="21">
-      <c r="A186" s="5" t="s">
-        <v>171</v>
+      <c r="A186" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="B186" s="3">
-        <v>22877</v>
+        <v>33246</v>
       </c>
       <c r="C186" s="3">
-        <v>21117</v>
+        <v>30688</v>
       </c>
       <c r="D186" s="3">
-        <v>1760</v>
+        <v>2557</v>
       </c>
       <c r="E186" s="6">
         <v>2019</v>
@@ -5674,17 +5919,17 @@
       <c r="J186" s="2"/>
     </row>
     <row r="187" spans="1:10" ht="21">
-      <c r="A187" s="5" t="s">
-        <v>172</v>
+      <c r="A187" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="B187" s="3">
-        <v>33696</v>
+        <v>48947</v>
       </c>
       <c r="C187" s="3">
-        <v>33649</v>
+        <v>48878</v>
       </c>
       <c r="D187" s="2">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E187" s="6">
         <v>2019</v>
@@ -5698,17 +5943,17 @@
       <c r="J187" s="2"/>
     </row>
     <row r="188" spans="1:10" ht="21">
-      <c r="A188" s="5" t="s">
-        <v>173</v>
+      <c r="A188" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="B188" s="3">
-        <v>62756</v>
+        <v>91189</v>
       </c>
       <c r="C188" s="3">
-        <v>61237</v>
+        <v>88982</v>
       </c>
       <c r="D188" s="3">
-        <v>1519</v>
+        <v>2207</v>
       </c>
       <c r="E188" s="6">
         <v>2019</v>
@@ -5722,17 +5967,17 @@
       <c r="J188" s="2"/>
     </row>
     <row r="189" spans="1:10" ht="21">
-      <c r="A189" s="5" t="s">
-        <v>174</v>
+      <c r="A189" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="B189" s="3">
-        <v>38960</v>
+        <v>56598</v>
       </c>
       <c r="C189" s="3">
-        <v>36436</v>
+        <v>52930</v>
       </c>
       <c r="D189" s="3">
-        <v>2525</v>
+        <v>3668</v>
       </c>
       <c r="E189" s="6">
         <v>2019</v>
@@ -5746,17 +5991,17 @@
       <c r="J189" s="2"/>
     </row>
     <row r="190" spans="1:10" ht="21">
-      <c r="A190" s="5" t="s">
-        <v>175</v>
+      <c r="A190" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="B190" s="3">
-        <v>2066</v>
+        <v>3004</v>
       </c>
       <c r="C190" s="3">
-        <v>1931</v>
+        <v>2808</v>
       </c>
       <c r="D190" s="2">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="E190" s="6">
         <v>2019</v>
@@ -5770,17 +6015,17 @@
       <c r="J190" s="2"/>
     </row>
     <row r="191" spans="1:10" ht="21">
-      <c r="A191" s="5" t="s">
-        <v>176</v>
+      <c r="A191" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="B191" s="3">
-        <v>3912300</v>
+        <v>5683714</v>
       </c>
       <c r="C191" s="3">
-        <v>3018576</v>
+        <v>4385144</v>
       </c>
       <c r="D191" s="3">
-        <v>893724</v>
+        <v>1298571</v>
       </c>
       <c r="E191" s="6">
         <v>2019</v>
@@ -5794,14 +6039,14 @@
       <c r="J191" s="2"/>
     </row>
     <row r="192" spans="1:10" ht="21">
-      <c r="A192" s="5" t="s">
-        <v>177</v>
+      <c r="A192" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="B192" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C192" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D192" s="2">
         <v>0</v>
@@ -5818,17 +6063,17 @@
       <c r="J192" s="2"/>
     </row>
     <row r="193" spans="1:10" ht="21">
-      <c r="A193" s="5" t="s">
-        <v>178</v>
+      <c r="A193" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="B193" s="3">
-        <v>44927</v>
+        <v>65264</v>
       </c>
       <c r="C193" s="3">
-        <v>33971</v>
+        <v>49345</v>
       </c>
       <c r="D193" s="3">
-        <v>10956</v>
+        <v>15918</v>
       </c>
       <c r="E193" s="6">
         <v>2019</v>
@@ -5842,17 +6087,17 @@
       <c r="J193" s="2"/>
     </row>
     <row r="194" spans="1:10" ht="21">
-      <c r="A194" s="5" t="s">
-        <v>179</v>
+      <c r="A194" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="B194" s="3">
-        <v>591275</v>
+        <v>859207</v>
       </c>
       <c r="C194" s="3">
-        <v>512457</v>
+        <v>744683</v>
       </c>
       <c r="D194" s="3">
-        <v>78817</v>
+        <v>114525</v>
       </c>
       <c r="E194" s="6">
         <v>2019</v>
@@ -5866,17 +6111,17 @@
       <c r="J194" s="2"/>
     </row>
     <row r="195" spans="1:10" ht="21">
-      <c r="A195" s="5" t="s">
-        <v>180</v>
+      <c r="A195" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="B195" s="3">
-        <v>83142</v>
+        <v>120775</v>
       </c>
       <c r="C195" s="3">
-        <v>82843</v>
+        <v>120341</v>
       </c>
       <c r="D195" s="2">
-        <v>299</v>
+        <v>434</v>
       </c>
       <c r="E195" s="6">
         <v>2019</v>
@@ -5890,17 +6135,17 @@
       <c r="J195" s="2"/>
     </row>
     <row r="196" spans="1:10" ht="21">
-      <c r="A196" s="5" t="s">
-        <v>181</v>
+      <c r="A196" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="B196" s="3">
-        <v>1413059</v>
+        <v>2052763</v>
       </c>
       <c r="C196" s="3">
-        <v>495808</v>
+        <v>720212</v>
       </c>
       <c r="D196" s="3">
-        <v>917251</v>
+        <v>1332550</v>
       </c>
       <c r="E196" s="6">
         <v>2019</v>
@@ -5914,17 +6159,17 @@
       <c r="J196" s="2"/>
     </row>
     <row r="197" spans="1:10" ht="21">
-      <c r="A197" s="5" t="s">
-        <v>239</v>
+      <c r="A197" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="B197" s="3">
-        <v>89884</v>
+        <v>130574</v>
       </c>
       <c r="C197" s="3">
-        <v>36826</v>
+        <v>53497</v>
       </c>
       <c r="D197" s="3">
-        <v>53058</v>
+        <v>77077</v>
       </c>
       <c r="E197" s="6">
         <v>2019</v>
@@ -5938,8 +6183,8 @@
       <c r="J197" s="2"/>
     </row>
     <row r="198" spans="1:10" ht="21">
-      <c r="A198" s="5" t="s">
-        <v>240</v>
+      <c r="A198" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="B198" s="2">
         <v>1</v>
@@ -5948,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E198" s="6">
         <v>2019</v>
@@ -5962,17 +6207,17 @@
       <c r="J198" s="2"/>
     </row>
     <row r="199" spans="1:10" ht="21">
-      <c r="A199" s="5" t="s">
-        <v>182</v>
+      <c r="A199" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="B199" s="3">
-        <v>1533</v>
+        <v>2226</v>
       </c>
       <c r="C199" s="3">
-        <v>1517</v>
+        <v>2204</v>
       </c>
       <c r="D199" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E199" s="6">
         <v>2019</v>
@@ -5986,14 +6231,14 @@
       <c r="J199" s="2"/>
     </row>
     <row r="200" spans="1:10" ht="21">
-      <c r="A200" s="5" t="s">
-        <v>183</v>
+      <c r="A200" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="B200" s="2">
-        <v>345</v>
+        <v>501</v>
       </c>
       <c r="C200" s="2">
-        <v>345</v>
+        <v>501</v>
       </c>
       <c r="D200" s="2">
         <v>0</v>
@@ -6010,14 +6255,14 @@
       <c r="J200" s="2"/>
     </row>
     <row r="201" spans="1:10" ht="21">
-      <c r="A201" s="5" t="s">
-        <v>184</v>
+      <c r="A201" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="B201" s="3">
-        <v>1023</v>
+        <v>1486</v>
       </c>
       <c r="C201" s="3">
-        <v>1022</v>
+        <v>1486</v>
       </c>
       <c r="D201" s="2">
         <v>0</v>
@@ -6034,17 +6279,17 @@
       <c r="J201" s="2"/>
     </row>
     <row r="202" spans="1:10" ht="21">
-      <c r="A202" s="5" t="s">
-        <v>185</v>
+      <c r="A202" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="B202" s="3">
-        <v>85867</v>
+        <v>124735</v>
       </c>
       <c r="C202" s="3">
-        <v>67562</v>
+        <v>98140</v>
       </c>
       <c r="D202" s="3">
-        <v>18305</v>
+        <v>26595</v>
       </c>
       <c r="E202" s="6">
         <v>2019</v>
@@ -6058,17 +6303,17 @@
       <c r="J202" s="2"/>
     </row>
     <row r="203" spans="1:10" ht="21">
-      <c r="A203" s="5" t="s">
-        <v>241</v>
+      <c r="A203" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="B203" s="3">
-        <v>20077</v>
+        <v>29166</v>
       </c>
       <c r="C203" s="3">
-        <v>15877</v>
+        <v>23065</v>
       </c>
       <c r="D203" s="3">
-        <v>4200</v>
+        <v>6101</v>
       </c>
       <c r="E203" s="6">
         <v>2019</v>
@@ -6082,17 +6327,17 @@
       <c r="J203" s="2"/>
     </row>
     <row r="204" spans="1:10" ht="21">
-      <c r="A204" s="5" t="s">
-        <v>186</v>
+      <c r="A204" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="B204" s="3">
-        <v>66969</v>
+        <v>97287</v>
       </c>
       <c r="C204" s="3">
-        <v>27442</v>
+        <v>39865</v>
       </c>
       <c r="D204" s="3">
-        <v>39527</v>
+        <v>57422</v>
       </c>
       <c r="E204" s="6">
         <v>2019</v>
@@ -6106,14 +6351,14 @@
       <c r="J204" s="2"/>
     </row>
     <row r="205" spans="1:10" ht="21">
-      <c r="A205" s="5" t="s">
-        <v>187</v>
+      <c r="A205" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="B205" s="2">
-        <v>674</v>
+        <v>979</v>
       </c>
       <c r="C205" s="2">
-        <v>674</v>
+        <v>979</v>
       </c>
       <c r="D205" s="2">
         <v>0</v>
@@ -6130,17 +6375,17 @@
       <c r="J205" s="2"/>
     </row>
     <row r="206" spans="1:10" ht="21">
-      <c r="A206" s="5" t="s">
-        <v>242</v>
+      <c r="A206" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="B206" s="3">
-        <v>371025</v>
+        <v>538930</v>
       </c>
       <c r="C206" s="3">
-        <v>138403</v>
+        <v>201029</v>
       </c>
       <c r="D206" s="3">
-        <v>232622</v>
+        <v>337901</v>
       </c>
       <c r="E206" s="6">
         <v>2019</v>
@@ -6154,17 +6399,17 @@
       <c r="J206" s="2"/>
     </row>
     <row r="207" spans="1:10" ht="21">
-      <c r="A207" s="5" t="s">
-        <v>188</v>
+      <c r="A207" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="B207" s="3">
-        <v>575556</v>
+        <v>836199</v>
       </c>
       <c r="C207" s="3">
-        <v>154375</v>
+        <v>224193</v>
       </c>
       <c r="D207" s="3">
-        <v>421182</v>
+        <v>612005</v>
       </c>
       <c r="E207" s="6">
         <v>2019</v>
@@ -6178,17 +6423,17 @@
       <c r="J207" s="2"/>
     </row>
     <row r="208" spans="1:10" ht="21">
-      <c r="A208" s="5" t="s">
-        <v>189</v>
+      <c r="A208" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="B208" s="2">
-        <v>302</v>
+        <v>438</v>
       </c>
       <c r="C208" s="2">
-        <v>300</v>
+        <v>435</v>
       </c>
       <c r="D208" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E208" s="6">
         <v>2019</v>
@@ -6202,17 +6447,17 @@
       <c r="J208" s="2"/>
     </row>
     <row r="209" spans="1:10" ht="21">
-      <c r="A209" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B209" s="2">
-        <v>740</v>
+      <c r="A209" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B209" s="3">
+        <v>1076</v>
       </c>
       <c r="C209" s="2">
-        <v>686</v>
+        <v>996</v>
       </c>
       <c r="D209" s="2">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E209" s="6">
         <v>2019</v>
@@ -6226,8 +6471,8 @@
       <c r="J209" s="2"/>
     </row>
     <row r="210" spans="1:10" ht="21">
-      <c r="A210" s="5" t="s">
-        <v>191</v>
+      <c r="A210" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="B210" s="2">
         <v>0</v>
@@ -6236,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E210" s="6">
         <v>2019</v>
@@ -6250,14 +6495,14 @@
       <c r="J210" s="2"/>
     </row>
     <row r="211" spans="1:10" ht="21">
-      <c r="A211" s="5" t="s">
-        <v>192</v>
+      <c r="A211" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="B211" s="3">
-        <v>1271</v>
+        <v>1847</v>
       </c>
       <c r="C211" s="3">
-        <v>1271</v>
+        <v>1846</v>
       </c>
       <c r="D211" s="2">
         <v>0</v>
@@ -6274,17 +6519,17 @@
       <c r="J211" s="2"/>
     </row>
     <row r="212" spans="1:10" ht="21">
-      <c r="A212" s="5" t="s">
-        <v>193</v>
+      <c r="A212" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="B212" s="2">
-        <v>508</v>
+        <v>739</v>
       </c>
       <c r="C212" s="2">
-        <v>397</v>
+        <v>576</v>
       </c>
       <c r="D212" s="2">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="E212" s="6">
         <v>2019</v>
@@ -6298,17 +6543,17 @@
       <c r="J212" s="2"/>
     </row>
     <row r="213" spans="1:10" ht="21">
-      <c r="A213" s="5" t="s">
-        <v>194</v>
+      <c r="A213" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="B213" s="3">
-        <v>36627710</v>
+        <v>53208391</v>
       </c>
       <c r="C213" s="3">
-        <v>28052909</v>
+        <v>40751484</v>
       </c>
       <c r="D213" s="3">
-        <v>8574801</v>
+        <v>12456907</v>
       </c>
       <c r="E213" s="6">
         <v>2019</v>
@@ -6322,17 +6567,17 @@
       <c r="J213" s="2"/>
     </row>
     <row r="214" spans="1:10" ht="21">
-      <c r="A214" s="5" t="s">
-        <v>195</v>
+      <c r="A214" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="B214" s="3">
-        <v>3811467</v>
+        <v>5536714</v>
       </c>
       <c r="C214" s="3">
-        <v>2371330</v>
+        <v>3444645</v>
       </c>
       <c r="D214" s="3">
-        <v>1440137</v>
+        <v>2092069</v>
       </c>
       <c r="E214" s="6">
         <v>2019</v>
@@ -6346,17 +6591,17 @@
       <c r="J214" s="2"/>
     </row>
     <row r="215" spans="1:10" ht="21">
-      <c r="A215" s="5" t="s">
-        <v>196</v>
+      <c r="A215" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="B215" s="3">
-        <v>32800782</v>
+        <v>47649223</v>
       </c>
       <c r="C215" s="3">
-        <v>25680074</v>
+        <v>37304653</v>
       </c>
       <c r="D215" s="3">
-        <v>7120708</v>
+        <v>10344570</v>
       </c>
       <c r="E215" s="6">
         <v>2019</v>
@@ -6370,17 +6615,17 @@
       <c r="J215" s="2"/>
     </row>
     <row r="216" spans="1:10" ht="21">
-      <c r="A216" s="5" t="s">
-        <v>243</v>
+      <c r="A216" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="B216" s="3">
-        <v>14087</v>
+        <v>20459</v>
       </c>
       <c r="C216" s="2">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="D216" s="3">
-        <v>13956</v>
+        <v>20268</v>
       </c>
       <c r="E216" s="6">
         <v>2019</v>
@@ -6394,14 +6639,14 @@
       <c r="J216" s="2"/>
     </row>
     <row r="217" spans="1:10" ht="21">
-      <c r="A217" s="5" t="s">
-        <v>197</v>
+      <c r="A217" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="B217" s="3">
-        <v>1352</v>
+        <v>1964</v>
       </c>
       <c r="C217" s="3">
-        <v>1352</v>
+        <v>1964</v>
       </c>
       <c r="D217" s="2">
         <v>0</v>
@@ -6418,17 +6663,17 @@
       <c r="J217" s="2"/>
     </row>
     <row r="218" spans="1:10" ht="21">
-      <c r="A218" s="5" t="s">
-        <v>198</v>
+      <c r="A218" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="B218" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C218" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E218" s="6">
         <v>2019</v>
@@ -6442,17 +6687,17 @@
       <c r="J218" s="2"/>
     </row>
     <row r="219" spans="1:10" ht="21">
-      <c r="A219" s="5" t="s">
-        <v>244</v>
+      <c r="A219" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="B219" s="3">
-        <v>12269472</v>
+        <v>17821292</v>
       </c>
       <c r="C219" s="3">
-        <v>3105715</v>
+        <v>4511524</v>
       </c>
       <c r="D219" s="3">
-        <v>9163757</v>
+        <v>13309768</v>
       </c>
       <c r="E219" s="6">
         <v>2019</v>
@@ -6466,17 +6711,17 @@
       <c r="J219" s="2"/>
     </row>
     <row r="220" spans="1:10" ht="21">
-      <c r="A220" s="5" t="s">
-        <v>245</v>
+      <c r="A220" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="B220" s="3">
-        <v>10698041</v>
+        <v>15538909</v>
       </c>
       <c r="C220" s="3">
-        <v>2483836</v>
+        <v>3607903</v>
       </c>
       <c r="D220" s="3">
-        <v>8214205</v>
+        <v>11931006</v>
       </c>
       <c r="E220" s="6">
         <v>2019</v>
@@ -6490,17 +6735,17 @@
       <c r="J220" s="2"/>
     </row>
     <row r="221" spans="1:10" ht="21">
-      <c r="A221" s="5" t="s">
-        <v>246</v>
+      <c r="A221" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="B221" s="2">
-        <v>649</v>
+        <v>942</v>
       </c>
       <c r="C221" s="2">
-        <v>381</v>
+        <v>554</v>
       </c>
       <c r="D221" s="2">
-        <v>267</v>
+        <v>388</v>
       </c>
       <c r="E221" s="6">
         <v>2019</v>
@@ -6514,17 +6759,17 @@
       <c r="J221" s="2"/>
     </row>
     <row r="222" spans="1:10" ht="21">
-      <c r="A222" s="5" t="s">
-        <v>199</v>
+      <c r="A222" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="B222" s="3">
-        <v>21381</v>
+        <v>31059</v>
       </c>
       <c r="C222" s="3">
-        <v>20351</v>
+        <v>29562</v>
       </c>
       <c r="D222" s="3">
-        <v>1030</v>
+        <v>1496</v>
       </c>
       <c r="E222" s="6">
         <v>2019</v>
@@ -6538,17 +6783,17 @@
       <c r="J222" s="2"/>
     </row>
     <row r="223" spans="1:10" ht="21">
-      <c r="A223" s="5" t="s">
-        <v>200</v>
+      <c r="A223" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E223" s="6">
         <v>2019</v>
@@ -6562,17 +6807,17 @@
       <c r="J223" s="2"/>
     </row>
     <row r="224" spans="1:10" ht="21">
-      <c r="A224" s="5" t="s">
-        <v>201</v>
+      <c r="A224" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E224" s="6">
         <v>2019</v>
@@ -6586,17 +6831,17 @@
       <c r="J224" s="2"/>
     </row>
     <row r="225" spans="1:10" ht="21">
-      <c r="A225" s="5" t="s">
-        <v>247</v>
+      <c r="A225" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="B225" s="2">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="C225" s="2">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E225" s="6">
         <v>2019</v>
@@ -6610,17 +6855,17 @@
       <c r="J225" s="2"/>
     </row>
     <row r="226" spans="1:10" ht="21">
-      <c r="A226" s="5" t="s">
-        <v>202</v>
+      <c r="A226" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="B226" s="3">
-        <v>40958</v>
+        <v>59508</v>
       </c>
       <c r="C226" s="3">
-        <v>5178</v>
+        <v>7524</v>
       </c>
       <c r="D226" s="3">
-        <v>35779</v>
+        <v>51985</v>
       </c>
       <c r="E226" s="6">
         <v>2019</v>
@@ -6634,17 +6879,17 @@
       <c r="J226" s="2"/>
     </row>
     <row r="227" spans="1:10" ht="21">
-      <c r="A227" s="5" t="s">
-        <v>203</v>
+      <c r="A227" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="B227" s="3">
-        <v>7962</v>
+        <v>11641</v>
       </c>
       <c r="C227" s="3">
-        <v>6981</v>
-      </c>
-      <c r="D227" s="2">
-        <v>981</v>
+        <v>10216</v>
+      </c>
+      <c r="D227" s="3">
+        <v>1425</v>
       </c>
       <c r="E227" s="6">
         <v>2019</v>
@@ -6658,17 +6903,17 @@
       <c r="J227" s="2"/>
     </row>
     <row r="228" spans="1:10" ht="21">
-      <c r="A228" s="5" t="s">
-        <v>204</v>
+      <c r="A228" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="B228" s="3">
-        <v>1086147</v>
+        <v>1577086</v>
       </c>
       <c r="C228" s="3">
-        <v>378317</v>
+        <v>549465</v>
       </c>
       <c r="D228" s="3">
-        <v>707830</v>
+        <v>1027621</v>
       </c>
       <c r="E228" s="6">
         <v>2019</v>
@@ -6682,14 +6927,14 @@
       <c r="J228" s="2"/>
     </row>
     <row r="229" spans="1:10" ht="21">
-      <c r="A229" s="5" t="s">
-        <v>205</v>
+      <c r="A229" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="B229" s="2">
         <v>0</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D229" s="2">
         <v>0</v>
@@ -6706,17 +6951,17 @@
       <c r="J229" s="2"/>
     </row>
     <row r="230" spans="1:10" ht="21">
-      <c r="A230" s="5" t="s">
-        <v>248</v>
+      <c r="A230" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="B230" s="3">
-        <v>217335</v>
+        <v>315701</v>
       </c>
       <c r="C230" s="3">
-        <v>44418</v>
+        <v>64525</v>
       </c>
       <c r="D230" s="3">
-        <v>172918</v>
+        <v>251176</v>
       </c>
       <c r="E230" s="6">
         <v>2019</v>
@@ -6730,17 +6975,17 @@
       <c r="J230" s="2"/>
     </row>
     <row r="231" spans="1:10" ht="21">
-      <c r="A231" s="5" t="s">
-        <v>206</v>
+      <c r="A231" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="B231" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C231" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E231" s="6">
         <v>2019</v>
@@ -6754,17 +6999,17 @@
       <c r="J231" s="2"/>
     </row>
     <row r="232" spans="1:10" ht="21">
-      <c r="A232" s="5" t="s">
-        <v>207</v>
+      <c r="A232" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="B232" s="3">
-        <v>33314</v>
+        <v>48396</v>
       </c>
       <c r="C232" s="3">
-        <v>5320</v>
+        <v>7726</v>
       </c>
       <c r="D232" s="3">
-        <v>27994</v>
+        <v>40670</v>
       </c>
       <c r="E232" s="6">
         <v>2019</v>
@@ -6778,14 +7023,14 @@
       <c r="J232" s="2"/>
     </row>
     <row r="233" spans="1:10" ht="21">
-      <c r="A233" s="5" t="s">
-        <v>208</v>
+      <c r="A233" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="B233" s="3">
-        <v>1382</v>
+        <v>2008</v>
       </c>
       <c r="C233" s="3">
-        <v>1382</v>
+        <v>2008</v>
       </c>
       <c r="D233" s="2">
         <v>0</v>
@@ -6802,17 +7047,17 @@
       <c r="J233" s="2"/>
     </row>
     <row r="234" spans="1:10" ht="21">
-      <c r="A234" s="5" t="s">
-        <v>209</v>
+      <c r="A234" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E234" s="6">
         <v>2019</v>
@@ -6826,17 +7071,17 @@
       <c r="J234" s="2"/>
     </row>
     <row r="235" spans="1:10" ht="21">
-      <c r="A235" s="5" t="s">
-        <v>210</v>
+      <c r="A235" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E235" s="6">
         <v>2019</v>
@@ -6850,17 +7095,17 @@
       <c r="J235" s="2"/>
     </row>
     <row r="236" spans="1:10" ht="21">
-      <c r="A236" s="5" t="s">
-        <v>211</v>
+      <c r="A236" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="B236" s="3">
-        <v>4512</v>
+        <v>6555</v>
       </c>
       <c r="C236" s="3">
-        <v>4504</v>
+        <v>6543</v>
       </c>
       <c r="D236" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E236" s="6">
         <v>2019</v>
@@ -6874,14 +7119,14 @@
       <c r="J236" s="2"/>
     </row>
     <row r="237" spans="1:10" ht="21">
-      <c r="A237" s="5" t="s">
-        <v>212</v>
+      <c r="A237" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="B237" s="3">
-        <v>1334</v>
+        <v>1939</v>
       </c>
       <c r="C237" s="3">
-        <v>1334</v>
+        <v>1939</v>
       </c>
       <c r="D237" s="2">
         <v>0</v>
@@ -6898,17 +7143,17 @@
       <c r="J237" s="2"/>
     </row>
     <row r="238" spans="1:10" ht="21">
-      <c r="A238" s="5" t="s">
-        <v>213</v>
+      <c r="A238" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="B238" s="3">
-        <v>5138</v>
+        <v>7463</v>
       </c>
       <c r="C238" s="3">
-        <v>5138</v>
+        <v>7463</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E238" s="6">
         <v>2019</v>
@@ -6922,17 +7167,17 @@
       <c r="J238" s="2"/>
     </row>
     <row r="239" spans="1:10" ht="21">
-      <c r="A239" s="5" t="s">
-        <v>214</v>
+      <c r="A239" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="B239" s="3">
-        <v>1300</v>
-      </c>
-      <c r="C239" s="2">
-        <v>878</v>
+        <v>1888</v>
+      </c>
+      <c r="C239" s="3">
+        <v>1275</v>
       </c>
       <c r="D239" s="2">
-        <v>422</v>
+        <v>613</v>
       </c>
       <c r="E239" s="6">
         <v>2019</v>
@@ -6946,17 +7191,17 @@
       <c r="J239" s="2"/>
     </row>
     <row r="240" spans="1:10" ht="21">
-      <c r="A240" s="5" t="s">
-        <v>215</v>
+      <c r="A240" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="B240" s="3">
-        <v>140202</v>
+        <v>203934</v>
       </c>
       <c r="C240" s="3">
-        <v>138174</v>
+        <v>200989</v>
       </c>
       <c r="D240" s="3">
-        <v>2027</v>
+        <v>2945</v>
       </c>
       <c r="E240" s="6">
         <v>2019</v>
@@ -6970,17 +7215,17 @@
       <c r="J240" s="2"/>
     </row>
     <row r="241" spans="1:10" ht="21">
-      <c r="A241" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B241" s="2">
-        <v>711</v>
-      </c>
-      <c r="C241" s="2">
-        <v>690</v>
+      <c r="A241" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B241" s="3">
+        <v>1032</v>
+      </c>
+      <c r="C241" s="3">
+        <v>1002</v>
       </c>
       <c r="D241" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E241" s="6">
         <v>2019</v>
@@ -6994,17 +7239,17 @@
       <c r="J241" s="2"/>
     </row>
     <row r="242" spans="1:10" ht="21">
-      <c r="A242" s="5" t="s">
-        <v>217</v>
+      <c r="A242" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="B242" s="3">
-        <v>6648</v>
+        <v>9658</v>
       </c>
       <c r="C242" s="3">
-        <v>6379</v>
+        <v>9267</v>
       </c>
       <c r="D242" s="2">
-        <v>269</v>
+        <v>391</v>
       </c>
       <c r="E242" s="6">
         <v>2019</v>
@@ -7018,17 +7263,17 @@
       <c r="J242" s="2"/>
     </row>
     <row r="243" spans="1:10" ht="21">
-      <c r="A243" s="5" t="s">
-        <v>218</v>
+      <c r="A243" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="B243" s="2">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="C243" s="2">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E243" s="6">
         <v>2019</v>
@@ -7042,17 +7287,17 @@
       <c r="J243" s="2"/>
     </row>
     <row r="244" spans="1:10" ht="21">
-      <c r="A244" s="5" t="s">
-        <v>249</v>
+      <c r="A244" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="B244" s="3">
-        <v>2201</v>
+        <v>3195</v>
       </c>
       <c r="C244" s="3">
-        <v>2195</v>
+        <v>3187</v>
       </c>
       <c r="D244" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E244" s="6">
         <v>2019</v>
@@ -7066,17 +7311,17 @@
       <c r="J244" s="2"/>
     </row>
     <row r="245" spans="1:10" ht="21">
-      <c r="A245" s="5" t="s">
-        <v>219</v>
+      <c r="A245" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="B245" s="3">
-        <v>38373</v>
+        <v>55749</v>
       </c>
       <c r="C245" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D245" s="3">
-        <v>38373</v>
+        <v>55748</v>
       </c>
       <c r="E245" s="6">
         <v>2019</v>
